--- a/raw_data/20200818_saline/20200818_Sensor2_Test_24.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_24.xlsx
@@ -1,1232 +1,1648 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E294F7-3986-467B-811B-09D31EEEBAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>21069.717060</v>
+        <v>21069.717059999999</v>
       </c>
       <c r="B2" s="1">
-        <v>5.852699</v>
+        <v>5.8526990000000003</v>
       </c>
       <c r="C2" s="1">
-        <v>1240.370000</v>
+        <v>1240.3699999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-306.647000</v>
+        <v>-306.64699999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>21080.404855</v>
+        <v>21080.404855000001</v>
       </c>
       <c r="G2" s="1">
-        <v>5.855668</v>
+        <v>5.8556679999999997</v>
       </c>
       <c r="H2" s="1">
-        <v>1265.870000</v>
+        <v>1265.8699999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-264.243000</v>
+        <v>-264.24299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>21090.794055</v>
+        <v>21090.794054999998</v>
       </c>
       <c r="L2" s="1">
-        <v>5.858554</v>
+        <v>5.8585539999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>1299.890000</v>
+        <v>1299.8900000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-202.528000</v>
+        <v>-202.52799999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>21100.955594</v>
+        <v>21100.955593999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>5.861377</v>
+        <v>5.8613770000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1311.690000</v>
+        <v>1311.69</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.081000</v>
+        <v>-184.08099999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>21111.519388</v>
+        <v>21111.519388000001</v>
       </c>
       <c r="V2" s="1">
-        <v>5.864311</v>
+        <v>5.8643109999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>1324.600000</v>
+        <v>1324.6</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.589000</v>
+        <v>-170.589</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>21122.284939</v>
+        <v>21122.284939000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>5.867301</v>
+        <v>5.8673010000000003</v>
       </c>
       <c r="AB2" s="1">
-        <v>1341.670000</v>
+        <v>1341.67</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.591000</v>
+        <v>-168.59100000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>21133.043777</v>
+        <v>21133.043776999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>5.870290</v>
+        <v>5.8702899999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>1354.400000</v>
+        <v>1354.4</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.508000</v>
+        <v>-178.50800000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>21143.471202</v>
+        <v>21143.471202000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>5.873186</v>
+        <v>5.8731859999999996</v>
       </c>
       <c r="AL2" s="1">
-        <v>1375.080000</v>
+        <v>1375.08</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.593000</v>
+        <v>-208.59299999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>21153.793908</v>
       </c>
       <c r="AP2" s="1">
-        <v>5.876054</v>
+        <v>5.8760539999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1396.780000</v>
+        <v>1396.78</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.659000</v>
+        <v>-252.65899999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>21164.493607</v>
       </c>
       <c r="AU2" s="1">
-        <v>5.879026</v>
+        <v>5.8790259999999996</v>
       </c>
       <c r="AV2" s="1">
-        <v>1421.490000</v>
+        <v>1421.49</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.829000</v>
+        <v>-312.82900000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>21175.595063</v>
+        <v>21175.595063000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>5.882110</v>
+        <v>5.8821099999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1440.990000</v>
+        <v>1440.99</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.039000</v>
+        <v>-365.03899999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>21186.216393</v>
+        <v>21186.216392999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>5.885060</v>
+        <v>5.8850600000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1527.020000</v>
+        <v>1527.02</v>
       </c>
       <c r="BG2" s="1">
-        <v>-613.420000</v>
+        <v>-613.41999999999996</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>21196.831275</v>
       </c>
       <c r="BJ2" s="1">
-        <v>5.888009</v>
+        <v>5.8880090000000003</v>
       </c>
       <c r="BK2" s="1">
-        <v>1682.640000</v>
+        <v>1682.64</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1057.840000</v>
+        <v>-1057.8399999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>21206.737870</v>
+        <v>21206.737870000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>5.890761</v>
+        <v>5.8907610000000004</v>
       </c>
       <c r="BP2" s="1">
-        <v>1979.210000</v>
+        <v>1979.21</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1826.340000</v>
+        <v>-1826.34</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>21217.115666</v>
+        <v>21217.115666000002</v>
       </c>
       <c r="BT2" s="1">
         <v>5.893643</v>
       </c>
       <c r="BU2" s="1">
-        <v>2368.450000</v>
+        <v>2368.4499999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2709.780000</v>
+        <v>-2709.78</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>21227.835730</v>
+        <v>21227.835729999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>5.896621</v>
+        <v>5.8966209999999997</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2856.400000</v>
+        <v>2856.4</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3676.010000</v>
+        <v>-3676.01</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>21238.750196</v>
+        <v>21238.750196000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>5.899653</v>
+        <v>5.8996529999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>4296.970000</v>
+        <v>4296.97</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5998.100000</v>
+        <v>-5998.1</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>21070.408978</v>
+        <v>21070.408977999999</v>
       </c>
       <c r="B3" s="1">
-        <v>5.852891</v>
+        <v>5.8528909999999996</v>
       </c>
       <c r="C3" s="1">
-        <v>1240.610000</v>
+        <v>1240.6099999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-306.755000</v>
+        <v>-306.755</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>21080.747620</v>
+        <v>21080.747619999998</v>
       </c>
       <c r="G3" s="1">
-        <v>5.855763</v>
+        <v>5.8557629999999996</v>
       </c>
       <c r="H3" s="1">
-        <v>1265.650000</v>
+        <v>1265.6500000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-264.415000</v>
+        <v>-264.41500000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>21091.141255</v>
+        <v>21091.141254999999</v>
       </c>
       <c r="L3" s="1">
-        <v>5.858650</v>
+        <v>5.8586499999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1299.960000</v>
+        <v>1299.96</v>
       </c>
       <c r="N3" s="1">
-        <v>-202.157000</v>
+        <v>-202.15700000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>21101.319662</v>
+        <v>21101.319662000002</v>
       </c>
       <c r="Q3" s="1">
         <v>5.861478</v>
       </c>
       <c r="R3" s="1">
-        <v>1311.710000</v>
+        <v>1311.71</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.033000</v>
+        <v>-184.03299999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>21111.882956</v>
+        <v>21111.882956000001</v>
       </c>
       <c r="V3" s="1">
-        <v>5.864412</v>
+        <v>5.8644119999999997</v>
       </c>
       <c r="W3" s="1">
-        <v>1324.550000</v>
+        <v>1324.55</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.603000</v>
+        <v>-170.60300000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>21122.973005</v>
       </c>
       <c r="AA3" s="1">
-        <v>5.867493</v>
+        <v>5.8674929999999996</v>
       </c>
       <c r="AB3" s="1">
-        <v>1341.730000</v>
+        <v>1341.73</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.516000</v>
+        <v>-168.51599999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>21133.450726</v>
+        <v>21133.450725999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>5.870403</v>
+        <v>5.8704029999999996</v>
       </c>
       <c r="AG3" s="1">
-        <v>1354.590000</v>
+        <v>1354.59</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.716000</v>
+        <v>-178.71600000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>21143.892806</v>
       </c>
       <c r="AK3" s="1">
-        <v>5.873304</v>
+        <v>5.8733040000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1375.070000</v>
+        <v>1375.07</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.592000</v>
+        <v>-208.59200000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>21154.157013</v>
       </c>
       <c r="AP3" s="1">
-        <v>5.876155</v>
+        <v>5.8761549999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1396.780000</v>
+        <v>1396.78</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.643000</v>
+        <v>-252.643</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>21164.887439</v>
+        <v>21164.887438999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>5.879135</v>
+        <v>5.8791349999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>1421.500000</v>
+        <v>1421.5</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.843000</v>
+        <v>-312.84300000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>21175.972527</v>
+        <v>21175.972527000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>5.882215</v>
+        <v>5.8822150000000004</v>
       </c>
       <c r="BA3" s="1">
-        <v>1440.980000</v>
+        <v>1440.98</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.072000</v>
+        <v>-365.072</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>21186.622122</v>
+        <v>21186.622122000001</v>
       </c>
       <c r="BE3" s="1">
         <v>5.885173</v>
       </c>
       <c r="BF3" s="1">
-        <v>1527.010000</v>
+        <v>1527.01</v>
       </c>
       <c r="BG3" s="1">
-        <v>-613.432000</v>
+        <v>-613.43200000000002</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>21197.245013</v>
       </c>
       <c r="BJ3" s="1">
-        <v>5.888124</v>
+        <v>5.8881240000000004</v>
       </c>
       <c r="BK3" s="1">
-        <v>1682.560000</v>
+        <v>1682.56</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1057.680000</v>
+        <v>-1057.68</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>21206.860887</v>
+        <v>21206.860886999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>5.890795</v>
+        <v>5.8907949999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1979.080000</v>
+        <v>1979.08</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1826.590000</v>
+        <v>-1826.59</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>21217.609775</v>
+        <v>21217.609775000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>5.893780</v>
+        <v>5.8937799999999996</v>
       </c>
       <c r="BU3" s="1">
-        <v>2368.500000</v>
+        <v>2368.5</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2709.750000</v>
+        <v>-2709.75</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>21228.304914</v>
       </c>
       <c r="BY3" s="1">
-        <v>5.896751</v>
+        <v>5.8967510000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2855.730000</v>
+        <v>2855.73</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3677.050000</v>
+        <v>-3677.05</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>21239.307871</v>
+        <v>21239.307871000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>5.899808</v>
+        <v>5.8998080000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>4296.140000</v>
+        <v>4296.1400000000003</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5986.190000</v>
+        <v>-5986.19</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>21070.750722</v>
+        <v>21070.750722000001</v>
       </c>
       <c r="B4" s="1">
-        <v>5.852986</v>
+        <v>5.8529859999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>1240.430000</v>
+        <v>1240.43</v>
       </c>
       <c r="D4" s="1">
-        <v>-306.944000</v>
+        <v>-306.94400000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>21081.092309</v>
       </c>
       <c r="G4" s="1">
-        <v>5.855859</v>
+        <v>5.8558589999999997</v>
       </c>
       <c r="H4" s="1">
-        <v>1266.070000</v>
+        <v>1266.07</v>
       </c>
       <c r="I4" s="1">
-        <v>-264.670000</v>
+        <v>-264.67</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>21091.489478</v>
       </c>
       <c r="L4" s="1">
-        <v>5.858747</v>
+        <v>5.8587470000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1300.090000</v>
+        <v>1300.0899999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-202.156000</v>
+        <v>-202.15600000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>21101.970937</v>
+        <v>21101.970936999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>5.861659</v>
+        <v>5.8616590000000004</v>
       </c>
       <c r="R4" s="1">
-        <v>1311.740000</v>
+        <v>1311.74</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.027000</v>
+        <v>-184.02699999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>21112.538667</v>
+        <v>21112.538667000001</v>
       </c>
       <c r="V4" s="1">
-        <v>5.864594</v>
+        <v>5.8645940000000003</v>
       </c>
       <c r="W4" s="1">
-        <v>1324.570000</v>
+        <v>1324.57</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.602000</v>
+        <v>-170.602</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>21123.365838</v>
+        <v>21123.365838000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.867602</v>
+        <v>5.8676019999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>1341.790000</v>
+        <v>1341.79</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.569000</v>
+        <v>-168.56899999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>21133.790286</v>
+        <v>21133.790285999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>5.870497</v>
+        <v>5.8704970000000003</v>
       </c>
       <c r="AG4" s="1">
-        <v>1354.590000</v>
+        <v>1354.59</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.436000</v>
+        <v>-178.43600000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>21144.240001</v>
+        <v>21144.240000999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>5.873400</v>
+        <v>5.8734000000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>1375.070000</v>
+        <v>1375.07</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.596000</v>
+        <v>-208.596</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>21154.520084</v>
       </c>
       <c r="AP4" s="1">
-        <v>5.876256</v>
+        <v>5.8762559999999997</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1396.790000</v>
+        <v>1396.79</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.661000</v>
+        <v>-252.661</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>21165.225205</v>
+        <v>21165.225204999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>5.879229</v>
+        <v>5.8792289999999996</v>
       </c>
       <c r="AV4" s="1">
-        <v>1421.470000</v>
+        <v>1421.47</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.847000</v>
+        <v>-312.84699999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>21176.383739</v>
+        <v>21176.383739000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>5.882329</v>
+        <v>5.8823290000000004</v>
       </c>
       <c r="BA4" s="1">
-        <v>1440.960000</v>
+        <v>1440.96</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.032000</v>
+        <v>-365.03199999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>21186.950969</v>
+        <v>21186.950969000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>5.885264</v>
+        <v>5.8852640000000003</v>
       </c>
       <c r="BF4" s="1">
-        <v>1527.010000</v>
+        <v>1527.01</v>
       </c>
       <c r="BG4" s="1">
-        <v>-613.420000</v>
+        <v>-613.41999999999996</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>21197.600570</v>
+        <v>21197.600569999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>5.888222</v>
+        <v>5.8882219999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1682.730000</v>
+        <v>1682.73</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1057.680000</v>
+        <v>-1057.68</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>21207.287933</v>
       </c>
       <c r="BO4" s="1">
-        <v>5.890913</v>
+        <v>5.8909130000000003</v>
       </c>
       <c r="BP4" s="1">
-        <v>1979.270000</v>
+        <v>1979.27</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1826.420000</v>
+        <v>-1826.42</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>21218.034256</v>
+        <v>21218.034255999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>5.893898</v>
+        <v>5.8938980000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2368.700000</v>
+        <v>2368.6999999999998</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2709.960000</v>
+        <v>-2709.96</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>21228.740935</v>
+        <v>21228.740935000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>5.896872</v>
+        <v>5.8968720000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2856.160000</v>
+        <v>2856.16</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3677.010000</v>
+        <v>-3677.01</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>21239.829459</v>
@@ -1235,497 +1651,497 @@
         <v>5.899953</v>
       </c>
       <c r="CE4" s="1">
-        <v>4274.370000</v>
+        <v>4274.37</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5990.430000</v>
+        <v>-5990.43</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>21071.092465</v>
+        <v>21071.092465000002</v>
       </c>
       <c r="B5" s="1">
-        <v>5.853081</v>
+        <v>5.8530810000000004</v>
       </c>
       <c r="C5" s="1">
-        <v>1240.600000</v>
+        <v>1240.5999999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-306.662000</v>
+        <v>-306.66199999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>21081.741572</v>
+        <v>21081.741571999999</v>
       </c>
       <c r="G5" s="1">
         <v>5.856039</v>
       </c>
       <c r="H5" s="1">
-        <v>1265.390000</v>
+        <v>1265.3900000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-264.402000</v>
+        <v>-264.40199999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>21092.132299</v>
+        <v>21092.132299000001</v>
       </c>
       <c r="L5" s="1">
-        <v>5.858926</v>
+        <v>5.8589260000000003</v>
       </c>
       <c r="M5" s="1">
-        <v>1299.810000</v>
+        <v>1299.81</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.237000</v>
+        <v>-202.23699999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>21102.368234</v>
+        <v>21102.368234000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.861769</v>
+        <v>5.8617689999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1311.810000</v>
+        <v>1311.81</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.050000</v>
+        <v>-184.05</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>21112.909707</v>
+        <v>21112.909706999999</v>
       </c>
       <c r="V5" s="1">
-        <v>5.864697</v>
+        <v>5.8646969999999996</v>
       </c>
       <c r="W5" s="1">
-        <v>1324.610000</v>
+        <v>1324.61</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.633000</v>
+        <v>-170.63300000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>21123.717036</v>
+        <v>21123.717035999998</v>
       </c>
       <c r="AA5" s="1">
         <v>5.867699</v>
       </c>
       <c r="AB5" s="1">
-        <v>1341.630000</v>
+        <v>1341.63</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.661000</v>
+        <v>-168.661</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>21134.136958</v>
+        <v>21134.136957999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>5.870594</v>
+        <v>5.8705939999999996</v>
       </c>
       <c r="AG5" s="1">
-        <v>1354.640000</v>
+        <v>1354.64</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.402000</v>
+        <v>-178.40199999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>21144.588192</v>
+        <v>21144.588191999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>5.873497</v>
+        <v>5.8734970000000004</v>
       </c>
       <c r="AL5" s="1">
-        <v>1375.050000</v>
+        <v>1375.05</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.570000</v>
+        <v>-208.57</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>21154.933715</v>
+        <v>21154.933714999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>5.876370</v>
+        <v>5.8763699999999996</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1396.790000</v>
+        <v>1396.79</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.688000</v>
+        <v>-252.68799999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>21165.955812</v>
       </c>
       <c r="AU5" s="1">
-        <v>5.879432</v>
+        <v>5.8794320000000004</v>
       </c>
       <c r="AV5" s="1">
-        <v>1421.490000</v>
+        <v>1421.49</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.845000</v>
+        <v>-312.84500000000003</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>21176.689238</v>
+        <v>21176.689237999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>5.882414</v>
+        <v>5.8824139999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1440.960000</v>
+        <v>1440.96</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.060000</v>
+        <v>-365.06</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>21187.313576</v>
       </c>
       <c r="BE5" s="1">
-        <v>5.885365</v>
+        <v>5.8853650000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1527.030000</v>
+        <v>1527.03</v>
       </c>
       <c r="BG5" s="1">
-        <v>-613.388000</v>
+        <v>-613.38800000000003</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>21197.976538</v>
+        <v>21197.976537999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>5.888327</v>
+        <v>5.8883270000000003</v>
       </c>
       <c r="BK5" s="1">
-        <v>1682.540000</v>
+        <v>1682.54</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1057.860000</v>
+        <v>-1057.8599999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>21207.684238</v>
+        <v>21207.684238000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>5.891023</v>
+        <v>5.8910229999999997</v>
       </c>
       <c r="BP5" s="1">
-        <v>1978.890000</v>
+        <v>1978.89</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1826.470000</v>
+        <v>-1826.47</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>21218.433535</v>
       </c>
       <c r="BT5" s="1">
-        <v>5.894009</v>
+        <v>5.8940089999999996</v>
       </c>
       <c r="BU5" s="1">
-        <v>2369.200000</v>
+        <v>2369.1999999999998</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2709.740000</v>
+        <v>-2709.74</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>21229.161505</v>
       </c>
       <c r="BY5" s="1">
-        <v>5.896989</v>
+        <v>5.8969889999999996</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2855.600000</v>
+        <v>2855.6</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3676.810000</v>
+        <v>-3676.81</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>21240.366130</v>
+        <v>21240.366129999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>5.900102</v>
+        <v>5.9001020000000004</v>
       </c>
       <c r="CE5" s="1">
-        <v>4293.920000</v>
+        <v>4293.92</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6000.050000</v>
+        <v>-6000.05</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>21071.748707</v>
+        <v>21071.748706999999</v>
       </c>
       <c r="B6" s="1">
-        <v>5.853264</v>
+        <v>5.8532640000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>1240.740000</v>
+        <v>1240.74</v>
       </c>
       <c r="D6" s="1">
-        <v>-306.513000</v>
+        <v>-306.51299999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>21082.128947</v>
+        <v>21082.128947000001</v>
       </c>
       <c r="G6" s="1">
         <v>5.856147</v>
       </c>
       <c r="H6" s="1">
-        <v>1265.600000</v>
+        <v>1265.5999999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-264.940000</v>
+        <v>-264.94</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>21092.524103</v>
       </c>
       <c r="L6" s="1">
-        <v>5.859034</v>
+        <v>5.8590340000000003</v>
       </c>
       <c r="M6" s="1">
-        <v>1299.950000</v>
+        <v>1299.95</v>
       </c>
       <c r="N6" s="1">
-        <v>-201.841000</v>
+        <v>-201.84100000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>21102.712920</v>
+        <v>21102.712920000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>5.861865</v>
+        <v>5.8618649999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1311.780000</v>
+        <v>1311.78</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.088000</v>
+        <v>-184.08799999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>21113.252466</v>
+        <v>21113.252466000002</v>
       </c>
       <c r="V6" s="1">
-        <v>5.864792</v>
+        <v>5.8647919999999996</v>
       </c>
       <c r="W6" s="1">
-        <v>1324.650000</v>
+        <v>1324.65</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.629000</v>
+        <v>-170.62899999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>21124.065691</v>
       </c>
       <c r="AA6" s="1">
-        <v>5.867796</v>
+        <v>5.8677960000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>1341.590000</v>
+        <v>1341.59</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.490000</v>
+        <v>-168.49</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>21134.554623</v>
       </c>
       <c r="AF6" s="1">
-        <v>5.870710</v>
+        <v>5.8707099999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1354.460000</v>
+        <v>1354.46</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.462000</v>
+        <v>-178.46199999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>21145.001328</v>
+        <v>21145.001327999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>5.873611</v>
+        <v>5.8736110000000004</v>
       </c>
       <c r="AL6" s="1">
-        <v>1375.060000</v>
+        <v>1375.06</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.596000</v>
+        <v>-208.596</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>21155.239251</v>
+        <v>21155.239250999999</v>
       </c>
       <c r="AP6" s="1">
         <v>5.876455</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1396.780000</v>
+        <v>1396.78</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.657000</v>
+        <v>-252.65700000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>21166.316931</v>
+        <v>21166.316931000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>5.879532</v>
+        <v>5.8795320000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>1421.520000</v>
+        <v>1421.52</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.809000</v>
+        <v>-312.80900000000003</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>21177.047846</v>
+        <v>21177.047846000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>5.882513</v>
+        <v>5.8825130000000003</v>
       </c>
       <c r="BA6" s="1">
-        <v>1440.990000</v>
+        <v>1440.99</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.017000</v>
+        <v>-365.017</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>21187.674167</v>
+        <v>21187.674167000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>5.885465</v>
+        <v>5.8854649999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1527.020000</v>
+        <v>1527.02</v>
       </c>
       <c r="BG6" s="1">
-        <v>-613.368000</v>
+        <v>-613.36800000000005</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>21198.351515</v>
+        <v>21198.351514999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>5.888431</v>
+        <v>5.8884309999999997</v>
       </c>
       <c r="BK6" s="1">
-        <v>1682.690000</v>
+        <v>1682.69</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1057.660000</v>
+        <v>-1057.6600000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>21208.107821</v>
+        <v>21208.107821000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>5.891141</v>
+        <v>5.8911410000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1978.970000</v>
+        <v>1978.97</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1826.380000</v>
+        <v>-1826.38</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>21218.863598</v>
       </c>
       <c r="BT6" s="1">
-        <v>5.894129</v>
+        <v>5.8941290000000004</v>
       </c>
       <c r="BU6" s="1">
-        <v>2369.530000</v>
+        <v>2369.5300000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2709.680000</v>
+        <v>-2709.68</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>21229.582112</v>
@@ -1734,679 +2150,679 @@
         <v>5.897106</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2855.620000</v>
+        <v>2855.62</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3677.240000</v>
+        <v>-3677.24</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>21240.909282</v>
+        <v>21240.909282000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>5.900253</v>
+        <v>5.9002530000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>4286.160000</v>
+        <v>4286.16</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5983.550000</v>
+        <v>-5983.55</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>21072.117243</v>
+        <v>21072.117243000001</v>
       </c>
       <c r="B7" s="1">
-        <v>5.853366</v>
+        <v>5.8533660000000003</v>
       </c>
       <c r="C7" s="1">
-        <v>1240.790000</v>
+        <v>1240.79</v>
       </c>
       <c r="D7" s="1">
-        <v>-306.988000</v>
+        <v>-306.988</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>21082.471792</v>
       </c>
       <c r="G7" s="1">
-        <v>5.856242</v>
+        <v>5.8562419999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1266.140000</v>
+        <v>1266.1400000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-264.841000</v>
+        <v>-264.84100000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>21092.871812</v>
+        <v>21092.871812000001</v>
       </c>
       <c r="L7" s="1">
-        <v>5.859131</v>
+        <v>5.8591309999999996</v>
       </c>
       <c r="M7" s="1">
-        <v>1300.330000</v>
+        <v>1300.33</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.933000</v>
+        <v>-201.93299999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>21103.062105</v>
+        <v>21103.062105000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>5.861962</v>
+        <v>5.8619620000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1311.700000</v>
+        <v>1311.7</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.068000</v>
+        <v>-184.06800000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>21113.611056</v>
+        <v>21113.611056000002</v>
       </c>
       <c r="V7" s="1">
-        <v>5.864892</v>
+        <v>5.8648920000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>1324.660000</v>
+        <v>1324.66</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.483000</v>
+        <v>-170.483</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>21124.475883</v>
+        <v>21124.475882999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>5.867910</v>
+        <v>5.8679100000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>1341.470000</v>
+        <v>1341.47</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.567000</v>
+        <v>-168.56700000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>21134.833913</v>
+        <v>21134.833912999999</v>
       </c>
       <c r="AF7" s="1">
         <v>5.870787</v>
       </c>
       <c r="AG7" s="1">
-        <v>1354.720000</v>
+        <v>1354.72</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.346000</v>
+        <v>-178.346</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>21145.289505</v>
+        <v>21145.289505000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>5.873692</v>
+        <v>5.8736920000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1375.090000</v>
+        <v>1375.09</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.588000</v>
+        <v>-208.58799999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>21155.598850</v>
+        <v>21155.598849999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>5.876555</v>
+        <v>5.8765549999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1396.760000</v>
+        <v>1396.76</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.666000</v>
+        <v>-252.666</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>21166.683972</v>
+        <v>21166.683971999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>5.879634</v>
+        <v>5.8796340000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>1421.480000</v>
+        <v>1421.48</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.816000</v>
+        <v>-312.81599999999997</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>21177.407446</v>
+        <v>21177.407446000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>5.882613</v>
+        <v>5.8826130000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1440.970000</v>
+        <v>1440.97</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.039000</v>
+        <v>-365.03899999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>21188.393367</v>
+        <v>21188.393367000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>5.885665</v>
+        <v>5.8856650000000004</v>
       </c>
       <c r="BF7" s="1">
-        <v>1527.030000</v>
+        <v>1527.03</v>
       </c>
       <c r="BG7" s="1">
-        <v>-613.388000</v>
+        <v>-613.38800000000003</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>21198.756778</v>
+        <v>21198.756777999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>5.888544</v>
+        <v>5.8885439999999996</v>
       </c>
       <c r="BK7" s="1">
-        <v>1682.660000</v>
+        <v>1682.66</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1057.820000</v>
+        <v>-1057.82</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>21208.502636</v>
+        <v>21208.502636000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>5.891251</v>
+        <v>5.8912509999999996</v>
       </c>
       <c r="BP7" s="1">
-        <v>1979.050000</v>
+        <v>1979.05</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1826.410000</v>
+        <v>-1826.41</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>21219.279742</v>
+        <v>21219.279741999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>5.894244</v>
+        <v>5.8942439999999996</v>
       </c>
       <c r="BU7" s="1">
-        <v>2369.830000</v>
+        <v>2369.83</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2710.070000</v>
+        <v>-2710.07</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>21230.010655</v>
+        <v>21230.010654999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>5.897225</v>
+        <v>5.8972249999999997</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2855.790000</v>
+        <v>2855.79</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3676.910000</v>
+        <v>-3676.91</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>21241.750466</v>
+        <v>21241.750466000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>5.900486</v>
+        <v>5.9004859999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4292.420000</v>
+        <v>4292.42</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5996.980000</v>
+        <v>-5996.98</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>21072.459969</v>
       </c>
       <c r="B8" s="1">
-        <v>5.853461</v>
+        <v>5.8534610000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>1240.830000</v>
+        <v>1240.83</v>
       </c>
       <c r="D8" s="1">
-        <v>-306.745000</v>
+        <v>-306.745</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>21082.817426</v>
+        <v>21082.817426000001</v>
       </c>
       <c r="G8" s="1">
         <v>5.856338</v>
       </c>
       <c r="H8" s="1">
-        <v>1265.760000</v>
+        <v>1265.76</v>
       </c>
       <c r="I8" s="1">
-        <v>-264.577000</v>
+        <v>-264.577</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>21093.217508</v>
+        <v>21093.217508000002</v>
       </c>
       <c r="L8" s="1">
-        <v>5.859227</v>
+        <v>5.8592269999999997</v>
       </c>
       <c r="M8" s="1">
-        <v>1299.840000</v>
+        <v>1299.8399999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-202.115000</v>
+        <v>-202.11500000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>21103.467858</v>
       </c>
       <c r="Q8" s="1">
-        <v>5.862074</v>
+        <v>5.8620739999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>1311.680000</v>
+        <v>1311.68</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.037000</v>
+        <v>-184.03700000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>21114.305950</v>
+        <v>21114.305950000002</v>
       </c>
       <c r="V8" s="1">
-        <v>5.865085</v>
+        <v>5.8650849999999997</v>
       </c>
       <c r="W8" s="1">
-        <v>1324.570000</v>
+        <v>1324.57</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.615000</v>
+        <v>-170.61500000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>21124.765050</v>
+        <v>21124.765050000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>5.867990</v>
+        <v>5.8679899999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>1341.690000</v>
+        <v>1341.69</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.446000</v>
+        <v>-168.446</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>21135.174590</v>
+        <v>21135.174589999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>5.870882</v>
+        <v>5.8708819999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1354.490000</v>
+        <v>1354.49</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.481000</v>
+        <v>-178.48099999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>21145.640672</v>
+        <v>21145.640672000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>5.873789</v>
+        <v>5.8737890000000004</v>
       </c>
       <c r="AL8" s="1">
-        <v>1375.050000</v>
+        <v>1375.05</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.620000</v>
+        <v>-208.62</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>21155.958977</v>
+        <v>21155.958976999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>5.876655</v>
+        <v>5.8766550000000004</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1396.840000</v>
+        <v>1396.84</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.655000</v>
+        <v>-252.655</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>21167.414390</v>
+        <v>21167.414390000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>5.879837</v>
+        <v>5.8798370000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1421.480000</v>
+        <v>1421.48</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.858000</v>
+        <v>-312.858</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>21178.124164</v>
+        <v>21178.124164000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>5.882812</v>
+        <v>5.8828120000000004</v>
       </c>
       <c r="BA8" s="1">
-        <v>1441.000000</v>
+        <v>1441</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.028000</v>
+        <v>-365.02800000000002</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>21188.756936</v>
+        <v>21188.756936000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>5.885766</v>
+        <v>5.8857660000000003</v>
       </c>
       <c r="BF8" s="1">
-        <v>1527.030000</v>
+        <v>1527.03</v>
       </c>
       <c r="BG8" s="1">
-        <v>-613.370000</v>
+        <v>-613.37</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>21199.124319</v>
+        <v>21199.124318999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>5.888646</v>
+        <v>5.8886459999999996</v>
       </c>
       <c r="BK8" s="1">
-        <v>1682.430000</v>
+        <v>1682.43</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1057.620000</v>
+        <v>-1057.6199999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>21208.924235</v>
+        <v>21208.924234999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>5.891368</v>
+        <v>5.8913679999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1978.960000</v>
+        <v>1978.96</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1826.460000</v>
+        <v>-1826.46</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>21220.001918</v>
+        <v>21220.001918000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>5.894445</v>
+        <v>5.8944450000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>2370.340000</v>
+        <v>2370.34</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2710.440000</v>
+        <v>-2710.44</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>21230.727376</v>
+        <v>21230.727375999999</v>
       </c>
       <c r="BY8" s="1">
         <v>5.897424</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2856.240000</v>
+        <v>2856.24</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3677.020000</v>
+        <v>-3677.02</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>21241.987056</v>
+        <v>21241.987056000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>5.900552</v>
+        <v>5.9005520000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>4292.870000</v>
+        <v>4292.87</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5999.550000</v>
+        <v>-5999.55</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>21072.803663</v>
+        <v>21072.803662999999</v>
       </c>
       <c r="B9" s="1">
-        <v>5.853557</v>
+        <v>5.8535570000000003</v>
       </c>
       <c r="C9" s="1">
-        <v>1240.460000</v>
+        <v>1240.46</v>
       </c>
       <c r="D9" s="1">
-        <v>-306.813000</v>
+        <v>-306.81299999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>21083.251927</v>
+        <v>21083.251927000001</v>
       </c>
       <c r="G9" s="1">
-        <v>5.856459</v>
+        <v>5.8564590000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1265.570000</v>
+        <v>1265.57</v>
       </c>
       <c r="I9" s="1">
-        <v>-263.665000</v>
+        <v>-263.66500000000002</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>21093.634644</v>
+        <v>21093.634644000002</v>
       </c>
       <c r="L9" s="1">
         <v>5.859343</v>
       </c>
       <c r="M9" s="1">
-        <v>1300.050000</v>
+        <v>1300.05</v>
       </c>
       <c r="N9" s="1">
-        <v>-201.842000</v>
+        <v>-201.84200000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>21103.767447</v>
+        <v>21103.767446999998</v>
       </c>
       <c r="Q9" s="1">
         <v>5.862158</v>
       </c>
       <c r="R9" s="1">
-        <v>1311.750000</v>
+        <v>1311.75</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.065000</v>
+        <v>-184.065</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>21114.647160</v>
+        <v>21114.64716</v>
       </c>
       <c r="V9" s="1">
-        <v>5.865180</v>
+        <v>5.8651799999999996</v>
       </c>
       <c r="W9" s="1">
-        <v>1324.640000</v>
+        <v>1324.64</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.533000</v>
+        <v>-170.53299999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>21125.114762</v>
+        <v>21125.114762000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>5.868087</v>
+        <v>5.8680870000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1341.720000</v>
+        <v>1341.72</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.601000</v>
+        <v>-168.601</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>21135.519346</v>
+        <v>21135.519346000001</v>
       </c>
       <c r="AF9" s="1">
         <v>5.870978</v>
       </c>
       <c r="AG9" s="1">
-        <v>1354.480000</v>
+        <v>1354.48</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.531000</v>
+        <v>-178.53100000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>21145.991343</v>
+        <v>21145.991343000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>5.873886</v>
+        <v>5.8738859999999997</v>
       </c>
       <c r="AL9" s="1">
-        <v>1375.070000</v>
+        <v>1375.07</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.592000</v>
+        <v>-208.59200000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>21156.679665</v>
       </c>
       <c r="AP9" s="1">
-        <v>5.876855</v>
+        <v>5.8768549999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1396.750000</v>
+        <v>1396.75</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.622000</v>
+        <v>-252.62200000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>21167.774146</v>
@@ -2415,874 +2831,874 @@
         <v>5.879937</v>
       </c>
       <c r="AV9" s="1">
-        <v>1421.480000</v>
+        <v>1421.48</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.833000</v>
+        <v>-312.83300000000003</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>21178.507607</v>
       </c>
       <c r="AZ9" s="1">
-        <v>5.882919</v>
+        <v>5.8829190000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1440.980000</v>
+        <v>1440.98</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.015000</v>
+        <v>-365.01499999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>21189.116535</v>
+        <v>21189.116535000001</v>
       </c>
       <c r="BE9" s="1">
         <v>5.885866</v>
       </c>
       <c r="BF9" s="1">
-        <v>1526.990000</v>
+        <v>1526.99</v>
       </c>
       <c r="BG9" s="1">
-        <v>-613.396000</v>
+        <v>-613.39599999999996</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>21199.499752</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5.888750</v>
+        <v>5.8887499999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1682.660000</v>
+        <v>1682.66</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1057.790000</v>
+        <v>-1057.79</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>21209.624122</v>
+        <v>21209.624122000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>5.891562</v>
+        <v>5.8915620000000004</v>
       </c>
       <c r="BP9" s="1">
-        <v>1978.840000</v>
+        <v>1978.84</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1826.310000</v>
+        <v>-1826.31</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>21220.133325</v>
+        <v>21220.133324999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>5.894481</v>
+        <v>5.8944809999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2370.480000</v>
+        <v>2370.48</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2710.180000</v>
+        <v>-2710.18</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>21230.875259</v>
       </c>
       <c r="BY9" s="1">
-        <v>5.897465</v>
+        <v>5.8974650000000004</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2855.880000</v>
+        <v>2855.88</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3676.610000</v>
+        <v>-3676.61</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>21242.506864</v>
+        <v>21242.506863999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>5.900696</v>
+        <v>5.9006959999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4291.040000</v>
+        <v>4291.04</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5982.640000</v>
+        <v>-5982.64</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>21073.221800</v>
+        <v>21073.221799999999</v>
       </c>
       <c r="B10" s="1">
-        <v>5.853673</v>
+        <v>5.8536729999999997</v>
       </c>
       <c r="C10" s="1">
-        <v>1240.660000</v>
+        <v>1240.6600000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-306.831000</v>
+        <v>-306.83100000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>21083.519265</v>
+        <v>21083.519264999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5.856533</v>
+        <v>5.8565329999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>1265.190000</v>
+        <v>1265.19</v>
       </c>
       <c r="I10" s="1">
-        <v>-264.198000</v>
+        <v>-264.19799999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>21093.928805</v>
       </c>
       <c r="L10" s="1">
-        <v>5.859425</v>
+        <v>5.8594249999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1300.210000</v>
+        <v>1300.21</v>
       </c>
       <c r="N10" s="1">
-        <v>-202.088000</v>
+        <v>-202.08799999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>21104.113622</v>
+        <v>21104.113622000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>5.862254</v>
+        <v>5.8622540000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1311.750000</v>
+        <v>1311.75</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.989000</v>
+        <v>-183.989</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>21114.991384</v>
+        <v>21114.991384000001</v>
       </c>
       <c r="V10" s="1">
-        <v>5.865275</v>
+        <v>5.8652749999999996</v>
       </c>
       <c r="W10" s="1">
-        <v>1324.590000</v>
+        <v>1324.59</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.565000</v>
+        <v>-170.565</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>21125.459946</v>
+        <v>21125.459945999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>5.868183</v>
+        <v>5.8681830000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1341.780000</v>
+        <v>1341.78</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.686000</v>
+        <v>-168.68600000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>21136.205314</v>
+        <v>21136.205313999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>5.871168</v>
+        <v>5.8711679999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1354.600000</v>
+        <v>1354.6</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.426000</v>
+        <v>-178.42599999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>21146.690702</v>
       </c>
       <c r="AK10" s="1">
-        <v>5.874081</v>
+        <v>5.8740810000000003</v>
       </c>
       <c r="AL10" s="1">
-        <v>1375.070000</v>
+        <v>1375.07</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.590000</v>
+        <v>-208.59</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>21157.068001</v>
       </c>
       <c r="AP10" s="1">
-        <v>5.876963</v>
+        <v>5.8769629999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1396.780000</v>
+        <v>1396.78</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.653000</v>
+        <v>-252.65299999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>21168.142177</v>
+        <v>21168.142177000002</v>
       </c>
       <c r="AU10" s="1">
         <v>5.880039</v>
       </c>
       <c r="AV10" s="1">
-        <v>1421.490000</v>
+        <v>1421.49</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.838000</v>
+        <v>-312.83800000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>21178.892009</v>
+        <v>21178.892008999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>5.883026</v>
+        <v>5.8830260000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1441.000000</v>
+        <v>1441</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.997000</v>
+        <v>-364.99700000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>21189.795594</v>
+        <v>21189.795593999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>5.886054</v>
+        <v>5.8860539999999997</v>
       </c>
       <c r="BF10" s="1">
-        <v>1527.040000</v>
+        <v>1527.04</v>
       </c>
       <c r="BG10" s="1">
-        <v>-613.370000</v>
+        <v>-613.37</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>21199.924823</v>
+        <v>21199.924823000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>5.888868</v>
+        <v>5.8888680000000004</v>
       </c>
       <c r="BK10" s="1">
-        <v>1682.450000</v>
+        <v>1682.45</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1057.620000</v>
+        <v>-1057.6199999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>21209.742138</v>
+        <v>21209.742138000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>5.891595</v>
+        <v>5.8915949999999997</v>
       </c>
       <c r="BP10" s="1">
-        <v>1978.750000</v>
+        <v>1978.75</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1826.310000</v>
+        <v>-1826.31</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>21220.569840</v>
+        <v>21220.56984</v>
       </c>
       <c r="BT10" s="1">
         <v>5.894603</v>
       </c>
       <c r="BU10" s="1">
-        <v>2370.880000</v>
+        <v>2370.88</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2710.720000</v>
+        <v>-2710.72</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>21231.297774</v>
+        <v>21231.297773999999</v>
       </c>
       <c r="BY10" s="1">
         <v>5.897583</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2855.620000</v>
+        <v>2855.62</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3676.600000</v>
+        <v>-3676.6</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>21243.023698</v>
+        <v>21243.023698000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>5.900840</v>
+        <v>5.9008399999999996</v>
       </c>
       <c r="CE10" s="1">
-        <v>4296.940000</v>
+        <v>4296.9399999999996</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5987.250000</v>
+        <v>-5987.25</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>21073.501535</v>
+        <v>21073.501534999999</v>
       </c>
       <c r="B11" s="1">
-        <v>5.853750</v>
+        <v>5.8537499999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>1240.720000</v>
+        <v>1240.72</v>
       </c>
       <c r="D11" s="1">
-        <v>-306.577000</v>
+        <v>-306.577</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>21083.862961</v>
+        <v>21083.862960999999</v>
       </c>
       <c r="G11" s="1">
-        <v>5.856629</v>
+        <v>5.8566289999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1265.550000</v>
+        <v>1265.55</v>
       </c>
       <c r="I11" s="1">
-        <v>-265.160000</v>
+        <v>-265.16000000000003</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>21094.273524</v>
       </c>
       <c r="L11" s="1">
-        <v>5.859520</v>
+        <v>5.8595199999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>1300.030000</v>
+        <v>1300.03</v>
       </c>
       <c r="N11" s="1">
-        <v>-202.307000</v>
+        <v>-202.30699999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>21104.462309</v>
+        <v>21104.462308999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>5.862351</v>
+        <v>5.8623510000000003</v>
       </c>
       <c r="R11" s="1">
-        <v>1311.770000</v>
+        <v>1311.77</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.053000</v>
+        <v>-184.053</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>21115.679831</v>
+        <v>21115.679831000001</v>
       </c>
       <c r="V11" s="1">
-        <v>5.865467</v>
+        <v>5.8654669999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>1324.600000</v>
+        <v>1324.6</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.685000</v>
+        <v>-170.685</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>21126.160335</v>
       </c>
       <c r="AA11" s="1">
-        <v>5.868378</v>
+        <v>5.8683779999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1341.900000</v>
+        <v>1341.9</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.525000</v>
+        <v>-168.52500000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>21136.549499</v>
+        <v>21136.549499000001</v>
       </c>
       <c r="AF11" s="1">
         <v>5.871264</v>
       </c>
       <c r="AG11" s="1">
-        <v>1354.530000</v>
+        <v>1354.53</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.398000</v>
+        <v>-178.398</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>21147.035421</v>
       </c>
       <c r="AK11" s="1">
-        <v>5.874177</v>
+        <v>5.8741770000000004</v>
       </c>
       <c r="AL11" s="1">
-        <v>1375.060000</v>
+        <v>1375.06</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.572000</v>
+        <v>-208.572</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>21157.429087</v>
       </c>
       <c r="AP11" s="1">
-        <v>5.877064</v>
+        <v>5.8770639999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1396.790000</v>
+        <v>1396.79</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.658000</v>
+        <v>-252.65799999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>21168.814257</v>
+        <v>21168.814257000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>5.880226</v>
+        <v>5.8802260000000004</v>
       </c>
       <c r="AV11" s="1">
-        <v>1421.510000</v>
+        <v>1421.51</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.826000</v>
+        <v>-312.82600000000002</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>21179.553171</v>
       </c>
       <c r="AZ11" s="1">
-        <v>5.883209</v>
+        <v>5.8832089999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1440.980000</v>
+        <v>1440.98</v>
       </c>
       <c r="BB11" s="1">
-        <v>-365.002000</v>
+        <v>-365.00200000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>21190.228036</v>
       </c>
       <c r="BE11" s="1">
-        <v>5.886174</v>
+        <v>5.8861739999999996</v>
       </c>
       <c r="BF11" s="1">
-        <v>1526.990000</v>
+        <v>1526.99</v>
       </c>
       <c r="BG11" s="1">
-        <v>-613.363000</v>
+        <v>-613.36300000000006</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>21200.250695</v>
+        <v>21200.250694999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>5.888959</v>
+        <v>5.8889589999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1682.530000</v>
+        <v>1682.53</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1057.800000</v>
+        <v>-1057.8</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>21210.169690</v>
+        <v>21210.169689999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>5.891714</v>
+        <v>5.8917140000000003</v>
       </c>
       <c r="BP11" s="1">
-        <v>1978.840000</v>
+        <v>1978.84</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1826.310000</v>
+        <v>-1826.31</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>21220.996860</v>
+        <v>21220.996859999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>5.894721</v>
+        <v>5.8947209999999997</v>
       </c>
       <c r="BU11" s="1">
-        <v>2371.120000</v>
+        <v>2371.12</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2710.820000</v>
+        <v>-2710.82</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>21231.720863</v>
+        <v>21231.720862999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>5.897700</v>
+        <v>5.8977000000000004</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2855.330000</v>
+        <v>2855.33</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3676.100000</v>
+        <v>-3676.1</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>21243.578718</v>
+        <v>21243.578718000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>5.900994</v>
+        <v>5.9009939999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>4288.480000</v>
+        <v>4288.4799999999996</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6001.100000</v>
+        <v>-6001.1</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>21073.841321</v>
       </c>
       <c r="B12" s="1">
-        <v>5.853845</v>
+        <v>5.8538449999999997</v>
       </c>
       <c r="C12" s="1">
-        <v>1240.420000</v>
+        <v>1240.42</v>
       </c>
       <c r="D12" s="1">
-        <v>-306.606000</v>
+        <v>-306.60599999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>21084.209200</v>
+        <v>21084.209200000001</v>
       </c>
       <c r="G12" s="1">
         <v>5.856725</v>
       </c>
       <c r="H12" s="1">
-        <v>1265.240000</v>
+        <v>1265.24</v>
       </c>
       <c r="I12" s="1">
-        <v>-264.466000</v>
+        <v>-264.46600000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>21094.617716</v>
+        <v>21094.617716000001</v>
       </c>
       <c r="L12" s="1">
-        <v>5.859616</v>
+        <v>5.8596159999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1300.200000</v>
+        <v>1300.2</v>
       </c>
       <c r="N12" s="1">
-        <v>-202.189000</v>
+        <v>-202.18899999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>21105.159190</v>
+        <v>21105.159189999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>5.862544</v>
+        <v>5.8625439999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>1311.750000</v>
+        <v>1311.75</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.137000</v>
+        <v>-184.137</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>21116.022567</v>
       </c>
       <c r="V12" s="1">
-        <v>5.865562</v>
+        <v>5.8655619999999997</v>
       </c>
       <c r="W12" s="1">
-        <v>1324.680000</v>
+        <v>1324.68</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.648000</v>
+        <v>-170.648</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>21126.507041</v>
+        <v>21126.507041000001</v>
       </c>
       <c r="AA12" s="1">
         <v>5.868474</v>
       </c>
       <c r="AB12" s="1">
-        <v>1341.720000</v>
+        <v>1341.72</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.451000</v>
+        <v>-168.45099999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>21136.894716</v>
+        <v>21136.894715999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>5.871360</v>
+        <v>5.8713600000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1354.520000</v>
+        <v>1354.52</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.418000</v>
+        <v>-178.41800000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>21147.383651</v>
       </c>
       <c r="AK12" s="1">
-        <v>5.874273</v>
+        <v>5.8742729999999996</v>
       </c>
       <c r="AL12" s="1">
-        <v>1375.060000</v>
+        <v>1375.06</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.585000</v>
+        <v>-208.58500000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>21158.084799</v>
       </c>
       <c r="AP12" s="1">
-        <v>5.877246</v>
+        <v>5.8772460000000004</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1396.790000</v>
+        <v>1396.79</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.632000</v>
+        <v>-252.63200000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>21169.271071</v>
+        <v>21169.271070999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>5.880353</v>
+        <v>5.8803530000000004</v>
       </c>
       <c r="AV12" s="1">
-        <v>1421.530000</v>
+        <v>1421.53</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.832000</v>
+        <v>-312.83199999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>21179.975239</v>
+        <v>21179.975238999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>5.883326</v>
+        <v>5.8833260000000003</v>
       </c>
       <c r="BA12" s="1">
-        <v>1440.980000</v>
+        <v>1440.98</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.040000</v>
+        <v>-365.04</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>21190.587636</v>
       </c>
       <c r="BE12" s="1">
-        <v>5.886274</v>
+        <v>5.8862740000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1526.990000</v>
+        <v>1526.99</v>
       </c>
       <c r="BG12" s="1">
-        <v>-613.354000</v>
+        <v>-613.35400000000004</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>21200.648487</v>
+        <v>21200.648486999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>5.889069</v>
+        <v>5.8890690000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1682.570000</v>
+        <v>1682.57</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1057.530000</v>
+        <v>-1057.53</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>21210.563513</v>
+        <v>21210.563513000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>5.891823</v>
+        <v>5.8918229999999996</v>
       </c>
       <c r="BP12" s="1">
-        <v>1978.930000</v>
+        <v>1978.93</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1826.280000</v>
+        <v>-1826.28</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>21221.413995</v>
+        <v>21221.413994999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>5.894837</v>
+        <v>5.8948369999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>2370.970000</v>
+        <v>2370.9699999999998</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2711.310000</v>
+        <v>-2711.31</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>21232.168786</v>
+        <v>21232.168785999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>5.897825</v>
+        <v>5.8978250000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2855.910000</v>
+        <v>2855.91</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3676.460000</v>
+        <v>-3676.46</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>21244.107366</v>
@@ -3291,921 +3707,921 @@
         <v>5.901141</v>
       </c>
       <c r="CE12" s="1">
-        <v>4293.570000</v>
+        <v>4293.57</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5984.610000</v>
+        <v>-5984.61</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>21074.184525</v>
+        <v>21074.184525000001</v>
       </c>
       <c r="B13" s="1">
-        <v>5.853940</v>
+        <v>5.8539399999999997</v>
       </c>
       <c r="C13" s="1">
-        <v>1240.160000</v>
+        <v>1240.1600000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-306.932000</v>
+        <v>-306.93200000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>21084.897616</v>
+        <v>21084.897615999998</v>
       </c>
       <c r="G13" s="1">
         <v>5.856916</v>
       </c>
       <c r="H13" s="1">
-        <v>1265.660000</v>
+        <v>1265.6600000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-265.284000</v>
+        <v>-265.28399999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>21095.313601</v>
+        <v>21095.313601000002</v>
       </c>
       <c r="L13" s="1">
-        <v>5.859809</v>
+        <v>5.8598090000000003</v>
       </c>
       <c r="M13" s="1">
-        <v>1300.280000</v>
+        <v>1300.28</v>
       </c>
       <c r="N13" s="1">
-        <v>-201.653000</v>
+        <v>-201.65299999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>21105.506421</v>
+        <v>21105.506420999998</v>
       </c>
       <c r="Q13" s="1">
         <v>5.862641</v>
       </c>
       <c r="R13" s="1">
-        <v>1311.640000</v>
+        <v>1311.64</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.104000</v>
+        <v>-184.10400000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>21116.366791</v>
       </c>
       <c r="V13" s="1">
-        <v>5.865657</v>
+        <v>5.8656569999999997</v>
       </c>
       <c r="W13" s="1">
-        <v>1324.610000</v>
+        <v>1324.61</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.640000</v>
+        <v>-170.64</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>21126.853236</v>
+        <v>21126.853235999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>5.868570</v>
+        <v>5.8685700000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1341.760000</v>
+        <v>1341.76</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.393000</v>
+        <v>-168.393</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>21137.552411</v>
+        <v>21137.552411000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>5.871542</v>
+        <v>5.8715419999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>1354.450000</v>
+        <v>1354.45</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.468000</v>
+        <v>-178.46799999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>21148.071564</v>
+        <v>21148.071564000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>5.874464</v>
+        <v>5.8744639999999997</v>
       </c>
       <c r="AL13" s="1">
-        <v>1375.080000</v>
+        <v>1375.08</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.587000</v>
+        <v>-208.58699999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>21158.533678</v>
       </c>
       <c r="AP13" s="1">
-        <v>5.877370</v>
+        <v>5.87737</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1396.770000</v>
+        <v>1396.77</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.626000</v>
+        <v>-252.626</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>21169.631705</v>
       </c>
       <c r="AU13" s="1">
-        <v>5.880453</v>
+        <v>5.8804530000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>1421.500000</v>
+        <v>1421.5</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.802000</v>
+        <v>-312.80200000000002</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>21180.351233</v>
+        <v>21180.351233000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>5.883431</v>
+        <v>5.8834309999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1440.970000</v>
+        <v>1440.97</v>
       </c>
       <c r="BB13" s="1">
-        <v>-365.025000</v>
+        <v>-365.02499999999998</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>21190.951204</v>
+        <v>21190.951204000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>5.886375</v>
+        <v>5.8863750000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1527.030000</v>
+        <v>1527.03</v>
       </c>
       <c r="BG13" s="1">
-        <v>-613.344000</v>
+        <v>-613.34400000000005</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>21201.070086</v>
       </c>
       <c r="BJ13" s="1">
-        <v>5.889186</v>
+        <v>5.8891859999999996</v>
       </c>
       <c r="BK13" s="1">
-        <v>1682.590000</v>
+        <v>1682.59</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1057.730000</v>
+        <v>-1057.73</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>21210.986600</v>
+        <v>21210.9866</v>
       </c>
       <c r="BO13" s="1">
-        <v>5.891941</v>
+        <v>5.8919410000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1978.770000</v>
+        <v>1978.77</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1826.210000</v>
+        <v>-1826.21</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>21221.842042</v>
       </c>
       <c r="BT13" s="1">
-        <v>5.894956</v>
+        <v>5.8949559999999996</v>
       </c>
       <c r="BU13" s="1">
-        <v>2371.500000</v>
+        <v>2371.5</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2711.770000</v>
+        <v>-2711.77</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>21232.590844</v>
+        <v>21232.590843999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>5.897942</v>
+        <v>5.8979419999999996</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2855.990000</v>
+        <v>2855.99</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3675.530000</v>
+        <v>-3675.53</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>21244.626764</v>
+        <v>21244.626764000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>5.901285</v>
+        <v>5.9012849999999997</v>
       </c>
       <c r="CE13" s="1">
-        <v>4276.050000</v>
+        <v>4276.05</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5988.510000</v>
+        <v>-5988.51</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>21074.865534</v>
       </c>
       <c r="B14" s="1">
-        <v>5.854129</v>
+        <v>5.8541290000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>1240.580000</v>
+        <v>1240.58</v>
       </c>
       <c r="D14" s="1">
-        <v>-306.611000</v>
+        <v>-306.61099999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>21085.241374</v>
+        <v>21085.241374000001</v>
       </c>
       <c r="G14" s="1">
         <v>5.857011</v>
       </c>
       <c r="H14" s="1">
-        <v>1265.430000</v>
+        <v>1265.43</v>
       </c>
       <c r="I14" s="1">
-        <v>-264.364000</v>
+        <v>-264.36399999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>21095.658817</v>
       </c>
       <c r="L14" s="1">
-        <v>5.859905</v>
+        <v>5.8599050000000004</v>
       </c>
       <c r="M14" s="1">
-        <v>1300.080000</v>
+        <v>1300.08</v>
       </c>
       <c r="N14" s="1">
-        <v>-202.066000</v>
+        <v>-202.066</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>21105.861029</v>
       </c>
       <c r="Q14" s="1">
-        <v>5.862739</v>
+        <v>5.8627390000000004</v>
       </c>
       <c r="R14" s="1">
-        <v>1311.650000</v>
+        <v>1311.65</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.085000</v>
+        <v>-184.08500000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>21117.021509</v>
+        <v>21117.021508999998</v>
       </c>
       <c r="V14" s="1">
-        <v>5.865839</v>
+        <v>5.8658390000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>1324.640000</v>
+        <v>1324.64</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.450000</v>
+        <v>-170.45</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>21127.497512</v>
+        <v>21127.497512000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>5.868749</v>
+        <v>5.8687490000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1341.890000</v>
+        <v>1341.89</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.598000</v>
+        <v>-168.59800000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>21137.922960</v>
+        <v>21137.92296</v>
       </c>
       <c r="AF14" s="1">
         <v>5.871645</v>
       </c>
       <c r="AG14" s="1">
-        <v>1354.490000</v>
+        <v>1354.49</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.530000</v>
+        <v>-178.53</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>21148.428722</v>
+        <v>21148.428722000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>5.874564</v>
+        <v>5.8745640000000003</v>
       </c>
       <c r="AL14" s="1">
-        <v>1375.080000</v>
+        <v>1375.08</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.602000</v>
+        <v>-208.602</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>21158.894269</v>
       </c>
       <c r="AP14" s="1">
-        <v>5.877471</v>
+        <v>5.8774709999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1396.800000</v>
+        <v>1396.8</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.639000</v>
+        <v>-252.63900000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>21170.000222</v>
+        <v>21170.000221999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>5.880556</v>
+        <v>5.8805560000000003</v>
       </c>
       <c r="AV14" s="1">
-        <v>1421.530000</v>
+        <v>1421.53</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.812000</v>
+        <v>-312.81200000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>21180.742545</v>
+        <v>21180.742545000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>5.883540</v>
+        <v>5.88354</v>
       </c>
       <c r="BA14" s="1">
-        <v>1440.980000</v>
+        <v>1440.98</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.018000</v>
+        <v>-365.01799999999997</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>21191.392179</v>
+        <v>21191.392178999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>5.886498</v>
+        <v>5.8864979999999996</v>
       </c>
       <c r="BF14" s="1">
-        <v>1527.000000</v>
+        <v>1527</v>
       </c>
       <c r="BG14" s="1">
-        <v>-613.330000</v>
+        <v>-613.33000000000004</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>21201.399927</v>
+        <v>21201.399926999999</v>
       </c>
       <c r="BJ14" s="1">
         <v>5.889278</v>
       </c>
       <c r="BK14" s="1">
-        <v>1682.470000</v>
+        <v>1682.47</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1057.600000</v>
+        <v>-1057.5999999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>21211.380952</v>
       </c>
       <c r="BO14" s="1">
-        <v>5.892050</v>
+        <v>5.8920500000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1978.670000</v>
+        <v>1978.67</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1826.320000</v>
+        <v>-1826.32</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>21222.266618</v>
+        <v>21222.266618000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>5.895074</v>
+        <v>5.8950740000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2371.240000</v>
+        <v>2371.2399999999998</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2712.160000</v>
+        <v>-2712.16</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>21233.023357</v>
+        <v>21233.023356999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>5.898062</v>
+        <v>5.8980620000000004</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2855.990000</v>
+        <v>2855.99</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3675.560000</v>
+        <v>-3675.56</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>21245.164924</v>
+        <v>21245.164924000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>5.901435</v>
+        <v>5.9014350000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>4292.820000</v>
+        <v>4292.82</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6000.410000</v>
+        <v>-6000.41</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>21075.211277</v>
+        <v>21075.211276999999</v>
       </c>
       <c r="B15" s="1">
-        <v>5.854225</v>
+        <v>5.8542249999999996</v>
       </c>
       <c r="C15" s="1">
-        <v>1240.230000</v>
+        <v>1240.23</v>
       </c>
       <c r="D15" s="1">
-        <v>-306.710000</v>
+        <v>-306.70999999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>21085.586599</v>
+        <v>21085.586598999998</v>
       </c>
       <c r="G15" s="1">
-        <v>5.857107</v>
+        <v>5.8571070000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1264.810000</v>
+        <v>1264.81</v>
       </c>
       <c r="I15" s="1">
-        <v>-264.122000</v>
+        <v>-264.12200000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>21096.003537</v>
+        <v>21096.003537000001</v>
       </c>
       <c r="L15" s="1">
-        <v>5.860001</v>
+        <v>5.8600009999999996</v>
       </c>
       <c r="M15" s="1">
-        <v>1299.900000</v>
+        <v>1299.9000000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-202.230000</v>
+        <v>-202.23</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>21106.507315</v>
+        <v>21106.507314999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.862919</v>
+        <v>5.8629189999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>1311.770000</v>
+        <v>1311.77</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.993000</v>
+        <v>-183.99299999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>21117.397509</v>
+        <v>21117.397508999999</v>
       </c>
       <c r="V15" s="1">
-        <v>5.865944</v>
+        <v>5.8659439999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>1324.700000</v>
+        <v>1324.7</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.512000</v>
+        <v>-170.512</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>21127.773287</v>
       </c>
       <c r="AA15" s="1">
-        <v>5.868826</v>
+        <v>5.8688260000000003</v>
       </c>
       <c r="AB15" s="1">
-        <v>1341.610000</v>
+        <v>1341.61</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.730000</v>
+        <v>-168.73</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>21138.266153</v>
       </c>
       <c r="AF15" s="1">
-        <v>5.871741</v>
+        <v>5.8717410000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1354.470000</v>
+        <v>1354.47</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.306000</v>
+        <v>-178.30600000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>21148.778363</v>
+        <v>21148.778363000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>5.874661</v>
+        <v>5.8746609999999997</v>
       </c>
       <c r="AL15" s="1">
-        <v>1375.090000</v>
+        <v>1375.09</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.589000</v>
+        <v>-208.589</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>21159.257839</v>
+        <v>21159.257839000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>5.877572</v>
+        <v>5.8775719999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1396.770000</v>
+        <v>1396.77</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.640000</v>
+        <v>-252.64</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>21170.418852</v>
+        <v>21170.418851999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>5.880672</v>
+        <v>5.8806719999999997</v>
       </c>
       <c r="AV15" s="1">
-        <v>1421.530000</v>
+        <v>1421.53</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.811000</v>
+        <v>-312.81099999999998</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>21181.186465</v>
+        <v>21181.186464999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>5.883663</v>
+        <v>5.8836630000000003</v>
       </c>
       <c r="BA15" s="1">
-        <v>1440.990000</v>
+        <v>1440.99</v>
       </c>
       <c r="BB15" s="1">
-        <v>-365.027000</v>
+        <v>-365.02699999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>21191.673378</v>
       </c>
       <c r="BE15" s="1">
-        <v>5.886576</v>
+        <v>5.8865759999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1527.020000</v>
+        <v>1527.02</v>
       </c>
       <c r="BG15" s="1">
-        <v>-613.326000</v>
+        <v>-613.32600000000002</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>21201.779861</v>
+        <v>21201.779860999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>5.889383</v>
+        <v>5.8893829999999996</v>
       </c>
       <c r="BK15" s="1">
-        <v>1682.660000</v>
+        <v>1682.66</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1057.660000</v>
+        <v>-1057.6600000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>21211.802055</v>
       </c>
       <c r="BO15" s="1">
-        <v>5.892167</v>
+        <v>5.8921669999999997</v>
       </c>
       <c r="BP15" s="1">
-        <v>1978.820000</v>
+        <v>1978.82</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1826.120000</v>
+        <v>-1826.12</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>21222.680810</v>
+        <v>21222.680810000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>5.895189</v>
+        <v>5.8951890000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>2370.820000</v>
+        <v>2370.8200000000002</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2712.560000</v>
+        <v>-2712.56</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>21233.442482</v>
+        <v>21233.442481999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>5.898178</v>
+        <v>5.8981779999999997</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2855.790000</v>
+        <v>2855.79</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3676.030000</v>
+        <v>-3676.03</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>21245.704571</v>
+        <v>21245.704570999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>5.901585</v>
+        <v>5.9015849999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4282.340000</v>
+        <v>4282.34</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5978.070000</v>
+        <v>-5978.07</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>21075.551996</v>
+        <v>21075.551995999998</v>
       </c>
       <c r="B16" s="1">
-        <v>5.854320</v>
+        <v>5.8543200000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>1240.540000</v>
+        <v>1240.54</v>
       </c>
       <c r="D16" s="1">
-        <v>-306.665000</v>
+        <v>-306.66500000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>21086.232387</v>
       </c>
       <c r="G16" s="1">
-        <v>5.857287</v>
+        <v>5.8572870000000004</v>
       </c>
       <c r="H16" s="1">
-        <v>1265.420000</v>
+        <v>1265.42</v>
       </c>
       <c r="I16" s="1">
-        <v>-263.972000</v>
+        <v>-263.97199999999998</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>21096.475779</v>
       </c>
       <c r="L16" s="1">
-        <v>5.860132</v>
+        <v>5.8601320000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1300.060000</v>
+        <v>1300.06</v>
       </c>
       <c r="N16" s="1">
-        <v>-202.243000</v>
+        <v>-202.24299999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>21106.905107</v>
+        <v>21106.905106999999</v>
       </c>
       <c r="Q16" s="1">
         <v>5.863029</v>
       </c>
       <c r="R16" s="1">
-        <v>1311.810000</v>
+        <v>1311.81</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.038000</v>
+        <v>-184.03800000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>21117.742196</v>
+        <v>21117.742195999999</v>
       </c>
       <c r="V16" s="1">
-        <v>5.866039</v>
+        <v>5.8660389999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>1324.560000</v>
+        <v>1324.56</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.584000</v>
+        <v>-170.584</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>21128.131894</v>
+        <v>21128.131893999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.868926</v>
+        <v>5.8689260000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1341.600000</v>
+        <v>1341.6</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.596000</v>
+        <v>-168.596</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>21138.609880</v>
+        <v>21138.60988</v>
       </c>
       <c r="AF16" s="1">
-        <v>5.871836</v>
+        <v>5.8718360000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1354.550000</v>
+        <v>1354.55</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.468000</v>
+        <v>-178.46799999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>21149.196490</v>
+        <v>21149.196489999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>5.874777</v>
+        <v>5.8747769999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1375.090000</v>
+        <v>1375.09</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.601000</v>
+        <v>-208.601</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>21159.680461</v>
       </c>
       <c r="AP16" s="1">
-        <v>5.877689</v>
+        <v>5.8776890000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1396.770000</v>
+        <v>1396.77</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.617000</v>
+        <v>-252.61699999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>21170.725864</v>
@@ -4214,121 +4630,121 @@
         <v>5.880757</v>
       </c>
       <c r="AV16" s="1">
-        <v>1421.500000</v>
+        <v>1421.5</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.820000</v>
+        <v>-312.82</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>21181.456784</v>
+        <v>21181.456784000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>5.883738</v>
+        <v>5.8837380000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1440.980000</v>
+        <v>1440.98</v>
       </c>
       <c r="BB16" s="1">
-        <v>-365.011000</v>
+        <v>-365.01100000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>21192.033474</v>
       </c>
       <c r="BE16" s="1">
-        <v>5.886676</v>
+        <v>5.8866759999999996</v>
       </c>
       <c r="BF16" s="1">
-        <v>1527.020000</v>
+        <v>1527.02</v>
       </c>
       <c r="BG16" s="1">
-        <v>-613.343000</v>
+        <v>-613.34299999999996</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>21202.150373</v>
       </c>
       <c r="BJ16" s="1">
-        <v>5.889486</v>
+        <v>5.8894859999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1682.640000</v>
+        <v>1682.64</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1057.490000</v>
+        <v>-1057.49</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>21212.197335</v>
+        <v>21212.197335000001</v>
       </c>
       <c r="BO16" s="1">
         <v>5.892277</v>
       </c>
       <c r="BP16" s="1">
-        <v>1978.800000</v>
+        <v>1978.8</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1826.230000</v>
+        <v>-1826.23</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>21223.113785</v>
+        <v>21223.113785000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>5.895309</v>
+        <v>5.8953090000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>2370.810000</v>
+        <v>2370.81</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2713.000000</v>
+        <v>-2713</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>21233.897306</v>
+        <v>21233.897305999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>5.898305</v>
+        <v>5.8983049999999997</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2855.260000</v>
+        <v>2855.26</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3675.830000</v>
+        <v>-3675.83</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>21246.246203</v>
+        <v>21246.246202999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>5.901735</v>
+        <v>5.9017350000000004</v>
       </c>
       <c r="CE16" s="1">
-        <v>4278.840000</v>
+        <v>4278.84</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5998.500000</v>
+        <v>-5998.5</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>21076.203244</v>
       </c>
@@ -4336,178 +4752,178 @@
         <v>5.854501</v>
       </c>
       <c r="C17" s="1">
-        <v>1240.210000</v>
+        <v>1240.21</v>
       </c>
       <c r="D17" s="1">
-        <v>-306.450000</v>
+        <v>-306.45</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>21086.621709</v>
+        <v>21086.621708999999</v>
       </c>
       <c r="G17" s="1">
-        <v>5.857395</v>
+        <v>5.8573950000000004</v>
       </c>
       <c r="H17" s="1">
-        <v>1265.150000</v>
+        <v>1265.1500000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-264.187000</v>
+        <v>-264.18700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>21096.737189</v>
+        <v>21096.737188999999</v>
       </c>
       <c r="L17" s="1">
-        <v>5.860205</v>
+        <v>5.8602049999999997</v>
       </c>
       <c r="M17" s="1">
-        <v>1299.700000</v>
+        <v>1299.7</v>
       </c>
       <c r="N17" s="1">
-        <v>-202.116000</v>
+        <v>-202.11600000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>21107.255778</v>
+        <v>21107.255777999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>5.863127</v>
+        <v>5.8631270000000004</v>
       </c>
       <c r="R17" s="1">
-        <v>1311.730000</v>
+        <v>1311.73</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.085000</v>
+        <v>-184.08500000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>21118.087444</v>
+        <v>21118.087444000001</v>
       </c>
       <c r="V17" s="1">
-        <v>5.866135</v>
+        <v>5.8661349999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1324.680000</v>
+        <v>1324.68</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.591000</v>
+        <v>-170.59100000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>21128.480613</v>
       </c>
       <c r="AA17" s="1">
-        <v>5.869022</v>
+        <v>5.8690220000000002</v>
       </c>
       <c r="AB17" s="1">
-        <v>1341.830000</v>
+        <v>1341.83</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.564000</v>
+        <v>-168.56399999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>21139.032968</v>
       </c>
       <c r="AF17" s="1">
-        <v>5.871954</v>
+        <v>5.8719539999999997</v>
       </c>
       <c r="AG17" s="1">
-        <v>1354.580000</v>
+        <v>1354.58</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.414000</v>
+        <v>-178.41399999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>21149.473258</v>
+        <v>21149.473258000002</v>
       </c>
       <c r="AK17" s="1">
         <v>5.874854</v>
       </c>
       <c r="AL17" s="1">
-        <v>1375.110000</v>
+        <v>1375.11</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.587000</v>
+        <v>-208.58699999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>21159.976540</v>
+        <v>21159.97654</v>
       </c>
       <c r="AP17" s="1">
-        <v>5.877771</v>
+        <v>5.8777710000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1396.790000</v>
+        <v>1396.79</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.638000</v>
+        <v>-252.63800000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>21171.091389</v>
+        <v>21171.091389000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>5.880859</v>
+        <v>5.8808590000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1421.480000</v>
+        <v>1421.48</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.806000</v>
+        <v>-312.80599999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>21181.816879</v>
+        <v>21181.816879000002</v>
       </c>
       <c r="AZ17" s="1">
-        <v>5.883838</v>
+        <v>5.8838379999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1441.030000</v>
+        <v>1441.03</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.989000</v>
+        <v>-364.98899999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>21192.395395</v>
       </c>
       <c r="BE17" s="1">
-        <v>5.886776</v>
+        <v>5.8867760000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1527.010000</v>
+        <v>1527.01</v>
       </c>
       <c r="BG17" s="1">
-        <v>-613.309000</v>
+        <v>-613.30899999999997</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>21202.567508</v>
@@ -4516,1525 +4932,1525 @@
         <v>5.889602</v>
       </c>
       <c r="BK17" s="1">
-        <v>1682.550000</v>
+        <v>1682.55</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1057.680000</v>
+        <v>-1057.68</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>21212.621942</v>
+        <v>21212.621942000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>5.892395</v>
+        <v>5.8923949999999996</v>
       </c>
       <c r="BP17" s="1">
-        <v>1978.800000</v>
+        <v>1978.8</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1826.050000</v>
+        <v>-1826.05</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>21223.538856</v>
+        <v>21223.538855999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>5.895427</v>
+        <v>5.8954269999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>2370.430000</v>
+        <v>2370.4299999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2713.420000</v>
+        <v>-2713.42</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>21234.345690</v>
+        <v>21234.345689999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>5.898429</v>
+        <v>5.8984290000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2855.310000</v>
+        <v>2855.31</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3675.370000</v>
+        <v>-3675.37</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>21246.783866</v>
+        <v>21246.783866000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>5.901884</v>
+        <v>5.9018839999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4294.880000</v>
+        <v>4294.88</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5988.280000</v>
+        <v>-5988.28</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>21076.576234</v>
       </c>
       <c r="B18" s="1">
-        <v>5.854605</v>
+        <v>5.8546050000000003</v>
       </c>
       <c r="C18" s="1">
-        <v>1240.020000</v>
+        <v>1240.02</v>
       </c>
       <c r="D18" s="1">
-        <v>-306.885000</v>
+        <v>-306.88499999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>21086.967916</v>
+        <v>21086.967916000001</v>
       </c>
       <c r="G18" s="1">
-        <v>5.857491</v>
+        <v>5.8574909999999996</v>
       </c>
       <c r="H18" s="1">
-        <v>1265.670000</v>
+        <v>1265.67</v>
       </c>
       <c r="I18" s="1">
-        <v>-264.692000</v>
+        <v>-264.69200000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>21097.070589</v>
+        <v>21097.070588999999</v>
       </c>
       <c r="L18" s="1">
-        <v>5.860297</v>
+        <v>5.8602970000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1300.050000</v>
+        <v>1300.05</v>
       </c>
       <c r="N18" s="1">
-        <v>-202.328000</v>
+        <v>-202.328</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>21107.600993</v>
       </c>
       <c r="Q18" s="1">
-        <v>5.863222</v>
+        <v>5.8632220000000004</v>
       </c>
       <c r="R18" s="1">
-        <v>1311.710000</v>
+        <v>1311.71</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.062000</v>
+        <v>-184.06200000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>21118.503064</v>
       </c>
       <c r="V18" s="1">
-        <v>5.866251</v>
+        <v>5.8662510000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1324.550000</v>
+        <v>1324.55</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.699000</v>
+        <v>-170.69900000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>21128.905653</v>
+        <v>21128.905653000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>5.869140</v>
+        <v>5.8691399999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>1341.760000</v>
+        <v>1341.76</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.665000</v>
+        <v>-168.66499999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>21139.318696</v>
+        <v>21139.318695999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>5.872033</v>
+        <v>5.8720330000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1354.490000</v>
+        <v>1354.49</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.604000</v>
+        <v>-178.60400000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>21149.820981</v>
+        <v>21149.820981000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>5.874950</v>
+        <v>5.8749500000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1375.090000</v>
+        <v>1375.09</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.525000</v>
+        <v>-208.52500000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>21160.335675</v>
+        <v>21160.335674999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>5.877871</v>
+        <v>5.8778709999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1396.800000</v>
+        <v>1396.8</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.641000</v>
+        <v>-252.64099999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>21171.455949</v>
+        <v>21171.455948999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>5.880960</v>
+        <v>5.88096</v>
       </c>
       <c r="AV18" s="1">
-        <v>1421.480000</v>
+        <v>1421.48</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.771000</v>
+        <v>-312.77100000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>21182.175519</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.883938</v>
+        <v>5.8839379999999997</v>
       </c>
       <c r="BA18" s="1">
-        <v>1440.970000</v>
+        <v>1440.97</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.997000</v>
+        <v>-364.99700000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>21193.117232</v>
+        <v>21193.117232000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>5.886977</v>
+        <v>5.8869769999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1527.000000</v>
+        <v>1527</v>
       </c>
       <c r="BG18" s="1">
-        <v>-613.318000</v>
+        <v>-613.31799999999998</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>21202.925157</v>
+        <v>21202.925157000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>5.889701</v>
+        <v>5.8897009999999996</v>
       </c>
       <c r="BK18" s="1">
-        <v>1682.500000</v>
+        <v>1682.5</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1057.470000</v>
+        <v>-1057.47</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>21213.017223</v>
+        <v>21213.017222999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>5.892505</v>
+        <v>5.8925049999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1978.700000</v>
+        <v>1978.7</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1826.050000</v>
+        <v>-1826.05</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>21223.950537</v>
+        <v>21223.950537000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>5.895542</v>
+        <v>5.8955419999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>2369.650000</v>
+        <v>2369.65</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2713.660000</v>
+        <v>-2713.66</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>21235.078815</v>
+        <v>21235.078815000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>5.898633</v>
+        <v>5.8986330000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2854.920000</v>
+        <v>2854.92</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3675.960000</v>
+        <v>-3675.96</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>21247.633540</v>
+        <v>21247.633539999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>5.902120</v>
+        <v>5.90212</v>
       </c>
       <c r="CE18" s="1">
-        <v>4280.310000</v>
+        <v>4280.3100000000004</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5999.720000</v>
+        <v>-5999.72</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>21076.923434</v>
       </c>
       <c r="B19" s="1">
-        <v>5.854701</v>
+        <v>5.8547010000000004</v>
       </c>
       <c r="C19" s="1">
-        <v>1240.640000</v>
+        <v>1240.6400000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-306.652000</v>
+        <v>-306.65199999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>21087.310158</v>
       </c>
       <c r="G19" s="1">
-        <v>5.857586</v>
+        <v>5.8575860000000004</v>
       </c>
       <c r="H19" s="1">
-        <v>1265.560000</v>
+        <v>1265.56</v>
       </c>
       <c r="I19" s="1">
-        <v>-264.036000</v>
+        <v>-264.036</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>21097.499504</v>
+        <v>21097.499503999999</v>
       </c>
       <c r="L19" s="1">
         <v>5.860417</v>
       </c>
       <c r="M19" s="1">
-        <v>1300.160000</v>
+        <v>1300.1600000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.177000</v>
+        <v>-202.17699999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>21108.016181</v>
+        <v>21108.016180999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.863338</v>
+        <v>5.8633379999999997</v>
       </c>
       <c r="R19" s="1">
-        <v>1311.720000</v>
+        <v>1311.72</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.999000</v>
+        <v>-183.999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>21118.782804</v>
+        <v>21118.782803999999</v>
       </c>
       <c r="V19" s="1">
-        <v>5.866329</v>
+        <v>5.8663290000000003</v>
       </c>
       <c r="W19" s="1">
-        <v>1324.690000</v>
+        <v>1324.69</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.684000</v>
+        <v>-170.684</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>21129.178452</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.869216</v>
+        <v>5.8692159999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>1341.700000</v>
+        <v>1341.7</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.641000</v>
+        <v>-168.64099999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>21139.664871</v>
+        <v>21139.664871000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>5.872129</v>
+        <v>5.8721290000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>1354.400000</v>
+        <v>1354.4</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.495000</v>
+        <v>-178.495</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>21150.175594</v>
       </c>
       <c r="AK19" s="1">
-        <v>5.875049</v>
+        <v>5.8750489999999997</v>
       </c>
       <c r="AL19" s="1">
-        <v>1375.100000</v>
+        <v>1375.1</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.572000</v>
+        <v>-208.572</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>21160.697228</v>
+        <v>21160.697228000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>5.877971</v>
+        <v>5.8779709999999996</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1396.770000</v>
+        <v>1396.77</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.638000</v>
+        <v>-252.63800000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>21172.193036</v>
+        <v>21172.193036000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>5.881165</v>
+        <v>5.8811650000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1421.500000</v>
+        <v>1421.5</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.805000</v>
+        <v>-312.80500000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>21182.895182</v>
       </c>
       <c r="AZ19" s="1">
-        <v>5.884138</v>
+        <v>5.8841380000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1440.990000</v>
+        <v>1440.99</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.967000</v>
+        <v>-364.96699999999998</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>21193.476831</v>
       </c>
       <c r="BE19" s="1">
-        <v>5.887077</v>
+        <v>5.8870769999999997</v>
       </c>
       <c r="BF19" s="1">
-        <v>1527.020000</v>
+        <v>1527.02</v>
       </c>
       <c r="BG19" s="1">
-        <v>-613.257000</v>
+        <v>-613.25699999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>21203.299635</v>
+        <v>21203.299634999999</v>
       </c>
       <c r="BJ19" s="1">
         <v>5.889805</v>
       </c>
       <c r="BK19" s="1">
-        <v>1682.580000</v>
+        <v>1682.58</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1057.580000</v>
+        <v>-1057.58</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>21213.440805</v>
+        <v>21213.440804999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>5.892622</v>
+        <v>5.8926220000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1978.830000</v>
+        <v>1978.83</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1826.160000</v>
+        <v>-1826.16</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>21224.685110</v>
+        <v>21224.685109999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>5.895746</v>
+        <v>5.8957459999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2369.110000</v>
+        <v>2369.11</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2713.700000</v>
+        <v>-2713.7</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>21235.210217</v>
       </c>
       <c r="BY19" s="1">
-        <v>5.898670</v>
+        <v>5.8986700000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2855.840000</v>
+        <v>2855.84</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3675.940000</v>
+        <v>-3675.94</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>21247.865144</v>
+        <v>21247.865143999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>5.902185</v>
+        <v>5.9021850000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>4279.770000</v>
+        <v>4279.7700000000004</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5997.150000</v>
+        <v>-5997.15</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>21077.265177</v>
+        <v>21077.265177000001</v>
       </c>
       <c r="B20" s="1">
-        <v>5.854796</v>
+        <v>5.8547960000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>1240.670000</v>
+        <v>1240.67</v>
       </c>
       <c r="D20" s="1">
-        <v>-306.873000</v>
+        <v>-306.87299999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>21087.727293</v>
       </c>
       <c r="G20" s="1">
-        <v>5.857702</v>
+        <v>5.8577019999999997</v>
       </c>
       <c r="H20" s="1">
-        <v>1264.740000</v>
+        <v>1264.74</v>
       </c>
       <c r="I20" s="1">
-        <v>-264.911000</v>
+        <v>-264.911</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>21097.773790</v>
+        <v>21097.773789999999</v>
       </c>
       <c r="L20" s="1">
         <v>5.860493</v>
       </c>
       <c r="M20" s="1">
-        <v>1300.040000</v>
+        <v>1300.04</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.143000</v>
+        <v>-202.143</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>21108.309777</v>
+        <v>21108.309776999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>5.863419</v>
+        <v>5.8634190000000004</v>
       </c>
       <c r="R20" s="1">
-        <v>1311.700000</v>
+        <v>1311.7</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.953000</v>
+        <v>-183.953</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>21119.126066</v>
+        <v>21119.126066000001</v>
       </c>
       <c r="V20" s="1">
-        <v>5.866424</v>
+        <v>5.8664240000000003</v>
       </c>
       <c r="W20" s="1">
-        <v>1324.540000</v>
+        <v>1324.54</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.549000</v>
+        <v>-170.54900000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>21129.528666</v>
+        <v>21129.528665999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>5.869314</v>
+        <v>5.8693140000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1341.520000</v>
+        <v>1341.52</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.681000</v>
+        <v>-168.68100000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>21140.007608</v>
       </c>
       <c r="AF20" s="1">
-        <v>5.872224</v>
+        <v>5.8722240000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1354.550000</v>
+        <v>1354.55</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.485000</v>
+        <v>-178.48500000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>21150.868041</v>
+        <v>21150.868041000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>5.875241</v>
+        <v>5.8752409999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1375.080000</v>
+        <v>1375.08</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.580000</v>
+        <v>-208.58</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>21161.423403</v>
+        <v>21161.423403000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>5.878173</v>
+        <v>5.8781730000000003</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1396.780000</v>
+        <v>1396.78</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.611000</v>
+        <v>-252.61099999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>21172.569469</v>
+        <v>21172.569468999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.881269</v>
+        <v>5.8812689999999996</v>
       </c>
       <c r="AV20" s="1">
-        <v>1421.490000</v>
+        <v>1421.49</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.795000</v>
+        <v>-312.79500000000002</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>21183.252799</v>
+        <v>21183.252799000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5.884237</v>
+        <v>5.8842369999999997</v>
       </c>
       <c r="BA20" s="1">
-        <v>1441.000000</v>
+        <v>1441</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.993000</v>
+        <v>-364.99299999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>21193.840399</v>
+        <v>21193.840399000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>5.887178</v>
+        <v>5.8871779999999996</v>
       </c>
       <c r="BF20" s="1">
-        <v>1527.030000</v>
+        <v>1527.03</v>
       </c>
       <c r="BG20" s="1">
-        <v>-613.276000</v>
+        <v>-613.27599999999995</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>21203.978130</v>
+        <v>21203.97813</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.889994</v>
+        <v>5.8899939999999997</v>
       </c>
       <c r="BK20" s="1">
-        <v>1682.520000</v>
+        <v>1682.52</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1057.630000</v>
+        <v>-1057.6300000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>21214.142148</v>
+        <v>21214.142147999999</v>
       </c>
       <c r="BO20" s="1">
         <v>5.892817</v>
       </c>
       <c r="BP20" s="1">
-        <v>1978.660000</v>
+        <v>1978.66</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1825.980000</v>
+        <v>-1825.98</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>21224.811096</v>
+        <v>21224.811096000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>5.895781</v>
+        <v>5.8957810000000004</v>
       </c>
       <c r="BU20" s="1">
-        <v>2368.550000</v>
+        <v>2368.5500000000002</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2713.870000</v>
+        <v>-2713.87</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>21235.633801</v>
       </c>
       <c r="BY20" s="1">
-        <v>5.898787</v>
+        <v>5.8987869999999996</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2855.080000</v>
+        <v>2855.08</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3675.970000</v>
+        <v>-3675.97</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>21248.386472</v>
+        <v>21248.386471999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>5.902330</v>
+        <v>5.9023300000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4292.910000</v>
+        <v>4292.91</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5992.430000</v>
+        <v>-5992.43</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>21077.682313</v>
+        <v>21077.682313000001</v>
       </c>
       <c r="B21" s="1">
-        <v>5.854912</v>
+        <v>5.8549119999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>1240.480000</v>
+        <v>1240.48</v>
       </c>
       <c r="D21" s="1">
-        <v>-306.791000</v>
+        <v>-306.791</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>21088.006539</v>
+        <v>21088.006539000002</v>
       </c>
       <c r="G21" s="1">
-        <v>5.857780</v>
+        <v>5.85778</v>
       </c>
       <c r="H21" s="1">
-        <v>1265.570000</v>
+        <v>1265.57</v>
       </c>
       <c r="I21" s="1">
-        <v>-265.039000</v>
+        <v>-265.03899999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>21098.122446</v>
+        <v>21098.122446000001</v>
       </c>
       <c r="L21" s="1">
-        <v>5.860590</v>
+        <v>5.8605900000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>1299.940000</v>
+        <v>1299.94</v>
       </c>
       <c r="N21" s="1">
-        <v>-202.477000</v>
+        <v>-202.477</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>21108.658465</v>
       </c>
       <c r="Q21" s="1">
-        <v>5.863516</v>
+        <v>5.8635159999999997</v>
       </c>
       <c r="R21" s="1">
-        <v>1311.720000</v>
+        <v>1311.72</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.015000</v>
+        <v>-184.01499999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>21119.470786</v>
+        <v>21119.470786000002</v>
       </c>
       <c r="V21" s="1">
-        <v>5.866520</v>
+        <v>5.8665200000000004</v>
       </c>
       <c r="W21" s="1">
-        <v>1324.600000</v>
+        <v>1324.6</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.555000</v>
+        <v>-170.55500000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>21129.866900</v>
+        <v>21129.866900000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>5.869407</v>
+        <v>5.8694069999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>1341.620000</v>
+        <v>1341.62</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.684000</v>
+        <v>-168.684</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>21140.693078</v>
       </c>
       <c r="AF21" s="1">
-        <v>5.872415</v>
+        <v>5.8724150000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>1354.510000</v>
+        <v>1354.51</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.606000</v>
+        <v>-178.60599999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>21151.219673</v>
       </c>
       <c r="AK21" s="1">
-        <v>5.875339</v>
+        <v>5.8753390000000003</v>
       </c>
       <c r="AL21" s="1">
-        <v>1375.100000</v>
+        <v>1375.1</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.567000</v>
+        <v>-208.56700000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>21161.800859</v>
+        <v>21161.800858999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>5.878278</v>
+        <v>5.8782779999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1396.800000</v>
+        <v>1396.8</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.618000</v>
+        <v>-252.61799999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>21172.938523</v>
+        <v>21172.938523000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>5.881372</v>
+        <v>5.8813719999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>1421.490000</v>
+        <v>1421.49</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.825000</v>
+        <v>-312.82499999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>21183.921437</v>
+        <v>21183.921437000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>5.884423</v>
       </c>
       <c r="BA21" s="1">
-        <v>1441.000000</v>
+        <v>1441</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.990000</v>
+        <v>-364.99</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>21194.503550</v>
+        <v>21194.503550000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>5.887362</v>
+        <v>5.8873620000000004</v>
       </c>
       <c r="BF21" s="1">
-        <v>1527.050000</v>
+        <v>1527.05</v>
       </c>
       <c r="BG21" s="1">
-        <v>-613.299000</v>
+        <v>-613.29899999999998</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>21204.087250</v>
+        <v>21204.08725</v>
       </c>
       <c r="BJ21" s="1">
-        <v>5.890024</v>
+        <v>5.8900240000000004</v>
       </c>
       <c r="BK21" s="1">
-        <v>1682.490000</v>
+        <v>1682.49</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1057.610000</v>
+        <v>-1057.6099999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>21214.272596</v>
+        <v>21214.272595999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>5.892853</v>
+        <v>5.8928529999999997</v>
       </c>
       <c r="BP21" s="1">
-        <v>1978.690000</v>
+        <v>1978.69</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1826.020000</v>
+        <v>-1826.02</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>21225.220822</v>
+        <v>21225.220821999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>5.895895</v>
+        <v>5.8958950000000003</v>
       </c>
       <c r="BU21" s="1">
-        <v>2368.000000</v>
+        <v>2368</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2713.920000</v>
+        <v>-2713.92</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>21236.051452</v>
       </c>
       <c r="BY21" s="1">
-        <v>5.898903</v>
+        <v>5.8989029999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2855.670000</v>
+        <v>2855.67</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3675.010000</v>
+        <v>-3675.01</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>21248.902812</v>
       </c>
       <c r="CD21" s="1">
-        <v>5.902473</v>
+        <v>5.9024729999999996</v>
       </c>
       <c r="CE21" s="1">
-        <v>4289.780000</v>
+        <v>4289.78</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5999.780000</v>
+        <v>-5999.78</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>21077.959614</v>
+        <v>21077.959613999999</v>
       </c>
       <c r="B22" s="1">
-        <v>5.854989</v>
+        <v>5.8549889999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1240.460000</v>
+        <v>1240.46</v>
       </c>
       <c r="D22" s="1">
-        <v>-306.552000</v>
+        <v>-306.55200000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>21088.350764</v>
+        <v>21088.350763999999</v>
       </c>
       <c r="G22" s="1">
-        <v>5.857875</v>
+        <v>5.8578749999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1265.480000</v>
+        <v>1265.48</v>
       </c>
       <c r="I22" s="1">
-        <v>-264.426000</v>
+        <v>-264.42599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>21098.465677</v>
       </c>
       <c r="L22" s="1">
-        <v>5.860685</v>
+        <v>5.8606850000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1300.410000</v>
+        <v>1300.4100000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-201.897000</v>
+        <v>-201.89699999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>21109.007648</v>
+        <v>21109.007647999999</v>
       </c>
       <c r="Q22" s="1">
         <v>5.863613</v>
       </c>
       <c r="R22" s="1">
-        <v>1311.740000</v>
+        <v>1311.74</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.027000</v>
+        <v>-184.02699999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>21120.156721</v>
+        <v>21120.156720999999</v>
       </c>
       <c r="V22" s="1">
-        <v>5.866710</v>
+        <v>5.8667100000000003</v>
       </c>
       <c r="W22" s="1">
-        <v>1324.600000</v>
+        <v>1324.6</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.632000</v>
+        <v>-170.63200000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>21130.571219</v>
+        <v>21130.571219000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>5.869603</v>
+        <v>5.8696029999999997</v>
       </c>
       <c r="AB22" s="1">
-        <v>1341.610000</v>
+        <v>1341.61</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.412000</v>
+        <v>-168.41200000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>21141.037333</v>
       </c>
       <c r="AF22" s="1">
-        <v>5.872510</v>
+        <v>5.8725100000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1354.460000</v>
+        <v>1354.46</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.387000</v>
+        <v>-178.387</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>21151.567865</v>
+        <v>21151.567865000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>5.875436</v>
+        <v>5.8754359999999997</v>
       </c>
       <c r="AL22" s="1">
-        <v>1375.080000</v>
+        <v>1375.08</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.593000</v>
+        <v>-208.59299999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>21162.191177</v>
+        <v>21162.191177000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>5.878386</v>
+        <v>5.8783859999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1396.820000</v>
+        <v>1396.82</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.621000</v>
+        <v>-252.62100000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>21173.611098</v>
+        <v>21173.611098000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>5.881559</v>
+        <v>5.8815590000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>1421.490000</v>
+        <v>1421.49</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.798000</v>
+        <v>-312.798</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>21184.355937</v>
       </c>
       <c r="AZ22" s="1">
-        <v>5.884543</v>
+        <v>5.8845429999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1441.020000</v>
+        <v>1441.02</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.962000</v>
+        <v>-364.96199999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>21194.954910</v>
+        <v>21194.95491</v>
       </c>
       <c r="BE22" s="1">
-        <v>5.887487</v>
+        <v>5.8874870000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1527.030000</v>
+        <v>1527.03</v>
       </c>
       <c r="BG22" s="1">
-        <v>-613.282000</v>
+        <v>-613.28200000000004</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>21204.452829</v>
+        <v>21204.452829000002</v>
       </c>
       <c r="BJ22" s="1">
-        <v>5.890126</v>
+        <v>5.8901260000000004</v>
       </c>
       <c r="BK22" s="1">
-        <v>1682.560000</v>
+        <v>1682.56</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1057.340000</v>
+        <v>-1057.3399999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>21214.679812</v>
+        <v>21214.679811999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>5.892967</v>
+        <v>5.8929669999999996</v>
       </c>
       <c r="BP22" s="1">
-        <v>1978.700000</v>
+        <v>1978.7</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1825.880000</v>
+        <v>-1825.88</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>21225.654789</v>
       </c>
       <c r="BT22" s="1">
-        <v>5.896015</v>
+        <v>5.8960150000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>2367.560000</v>
+        <v>2367.56</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2713.190000</v>
+        <v>-2713.19</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>21236.508080</v>
+        <v>21236.50808</v>
       </c>
       <c r="BY22" s="1">
-        <v>5.899030</v>
+        <v>5.8990299999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2855.880000</v>
+        <v>2855.88</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3675.010000</v>
+        <v>-3675.01</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>21249.454326</v>
+        <v>21249.454325999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>5.902626</v>
+        <v>5.9026259999999997</v>
       </c>
       <c r="CE22" s="1">
-        <v>4277.440000</v>
+        <v>4277.4399999999996</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5994.840000</v>
+        <v>-5994.84</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>21078.303342</v>
+        <v>21078.303341999999</v>
       </c>
       <c r="B23" s="1">
-        <v>5.855084</v>
+        <v>5.8550839999999997</v>
       </c>
       <c r="C23" s="1">
-        <v>1240.650000</v>
+        <v>1240.6500000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-306.865000</v>
+        <v>-306.86500000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>21088.695018</v>
+        <v>21088.695017999999</v>
       </c>
       <c r="G23" s="1">
         <v>5.857971</v>
       </c>
       <c r="H23" s="1">
-        <v>1265.400000</v>
+        <v>1265.4000000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-264.583000</v>
+        <v>-264.58300000000003</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>21099.157597</v>
+        <v>21099.157597000001</v>
       </c>
       <c r="L23" s="1">
-        <v>5.860877</v>
+        <v>5.8608770000000003</v>
       </c>
       <c r="M23" s="1">
-        <v>1300.400000</v>
+        <v>1300.4000000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.865000</v>
+        <v>-201.86500000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>21109.705519</v>
+        <v>21109.705518999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>5.863807</v>
+        <v>5.8638070000000004</v>
       </c>
       <c r="R23" s="1">
-        <v>1311.700000</v>
+        <v>1311.7</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.105000</v>
+        <v>-184.10499999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>21120.500481</v>
+        <v>21120.500480999999</v>
       </c>
       <c r="V23" s="1">
-        <v>5.866806</v>
+        <v>5.8668060000000004</v>
       </c>
       <c r="W23" s="1">
-        <v>1324.640000</v>
+        <v>1324.64</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.519000</v>
+        <v>-170.51900000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>21130.976451</v>
+        <v>21130.976450999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>5.869716</v>
+        <v>5.8697160000000004</v>
       </c>
       <c r="AB23" s="1">
-        <v>1341.780000</v>
+        <v>1341.78</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.407000</v>
+        <v>-168.40700000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>21141.381028</v>
       </c>
       <c r="AF23" s="1">
-        <v>5.872606</v>
+        <v>5.8726060000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1354.490000</v>
+        <v>1354.49</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.475000</v>
+        <v>-178.47499999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>21152.222582</v>
+        <v>21152.222581999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>5.875617</v>
+        <v>5.8756170000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1375.080000</v>
+        <v>1375.08</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.545000</v>
+        <v>-208.54499999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>21162.863753</v>
+        <v>21162.863753000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>5.878573</v>
+        <v>5.8785730000000003</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1396.780000</v>
+        <v>1396.78</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.606000</v>
+        <v>-252.60599999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>21174.065433</v>
       </c>
       <c r="AU23" s="1">
-        <v>5.881685</v>
+        <v>5.8816850000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1421.460000</v>
+        <v>1421.46</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.805000</v>
+        <v>-312.80500000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>21184.712702</v>
+        <v>21184.712702000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>5.884642</v>
+        <v>5.8846420000000004</v>
       </c>
       <c r="BA23" s="1">
-        <v>1440.980000</v>
+        <v>1440.98</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.031000</v>
+        <v>-365.03100000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>21195.317485</v>
@@ -6043,225 +6459,225 @@
         <v>5.887588</v>
       </c>
       <c r="BF23" s="1">
-        <v>1527.040000</v>
+        <v>1527.04</v>
       </c>
       <c r="BG23" s="1">
-        <v>-613.253000</v>
+        <v>-613.25300000000004</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>21204.827291</v>
+        <v>21204.827291000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>5.890230</v>
+        <v>5.8902299999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1682.470000</v>
+        <v>1682.47</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1057.680000</v>
+        <v>-1057.68</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>21215.077139</v>
+        <v>21215.077139000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>5.893077</v>
+        <v>5.8930769999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1978.620000</v>
+        <v>1978.62</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1825.940000</v>
+        <v>-1825.94</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>21226.081845</v>
+        <v>21226.081845000001</v>
       </c>
       <c r="BT23" s="1">
         <v>5.896134</v>
       </c>
       <c r="BU23" s="1">
-        <v>2366.850000</v>
+        <v>2366.85</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2713.030000</v>
+        <v>-2713.03</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>21236.954183</v>
+        <v>21236.954183000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>5.899154</v>
+        <v>5.8991540000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2855.020000</v>
+        <v>2855.02</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3675.020000</v>
+        <v>-3675.02</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>21249.985541</v>
+        <v>21249.985540999998</v>
       </c>
       <c r="CD23" s="1">
         <v>5.902774</v>
       </c>
       <c r="CE23" s="1">
-        <v>4291.380000</v>
+        <v>4291.38</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5995.060000</v>
+        <v>-5995.06</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>21078.975879</v>
+        <v>21078.975879000001</v>
       </c>
       <c r="B24" s="1">
-        <v>5.855271</v>
+        <v>5.8552710000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1240.500000</v>
+        <v>1240.5</v>
       </c>
       <c r="D24" s="1">
-        <v>-307.020000</v>
+        <v>-307.02</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>21089.386906</v>
       </c>
       <c r="G24" s="1">
-        <v>5.858163</v>
+        <v>5.8581630000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1266.000000</v>
+        <v>1266</v>
       </c>
       <c r="I24" s="1">
-        <v>-264.487000</v>
+        <v>-264.48700000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>21099.502820</v>
+        <v>21099.502820000002</v>
       </c>
       <c r="L24" s="1">
-        <v>5.860973</v>
+        <v>5.8609730000000004</v>
       </c>
       <c r="M24" s="1">
-        <v>1300.180000</v>
+        <v>1300.18</v>
       </c>
       <c r="N24" s="1">
-        <v>-202.677000</v>
+        <v>-202.67699999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>21110.052719</v>
+        <v>21110.052718999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>5.863904</v>
+        <v>5.8639039999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>1311.680000</v>
+        <v>1311.68</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.060000</v>
+        <v>-184.06</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>21120.843185</v>
+        <v>21120.843185000002</v>
       </c>
       <c r="V24" s="1">
-        <v>5.866901</v>
+        <v>5.8669010000000004</v>
       </c>
       <c r="W24" s="1">
-        <v>1324.560000</v>
+        <v>1324.56</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.639000</v>
+        <v>-170.63900000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>21131.606867</v>
+        <v>21131.606866999999</v>
       </c>
       <c r="AA24" s="1">
         <v>5.869891</v>
       </c>
       <c r="AB24" s="1">
-        <v>1341.510000</v>
+        <v>1341.51</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.467000</v>
+        <v>-168.46700000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>21142.033326</v>
+        <v>21142.033326000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>5.872787</v>
+        <v>5.8727869999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>1354.340000</v>
+        <v>1354.34</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.362000</v>
+        <v>-178.36199999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>21152.613430</v>
+        <v>21152.613430000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>5.875726</v>
+        <v>5.8757260000000002</v>
       </c>
       <c r="AL24" s="1">
-        <v>1375.070000</v>
+        <v>1375.07</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.573000</v>
+        <v>-208.57300000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>21163.268489</v>
+        <v>21163.268488999998</v>
       </c>
       <c r="AP24" s="1">
-        <v>5.878686</v>
+        <v>5.8786860000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1396.780000</v>
+        <v>1396.78</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.606000</v>
+        <v>-252.60599999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>21174.429001</v>
@@ -6270,512 +6686,512 @@
         <v>5.881786</v>
       </c>
       <c r="AV24" s="1">
-        <v>1421.480000</v>
+        <v>1421.48</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.795000</v>
+        <v>-312.79500000000002</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>21185.071627</v>
+        <v>21185.071627000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>5.884742</v>
+        <v>5.8847420000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1441.020000</v>
+        <v>1441.02</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.998000</v>
+        <v>-364.99799999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>21195.679565</v>
+        <v>21195.679564999999</v>
       </c>
       <c r="BE24" s="1">
         <v>5.887689</v>
       </c>
       <c r="BF24" s="1">
-        <v>1527.020000</v>
+        <v>1527.02</v>
       </c>
       <c r="BG24" s="1">
-        <v>-613.265000</v>
+        <v>-613.26499999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>21205.241938</v>
+        <v>21205.241937999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>5.890345</v>
+        <v>5.8903449999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1682.460000</v>
+        <v>1682.46</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1057.440000</v>
+        <v>-1057.44</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>21215.517059</v>
+        <v>21215.517059000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>5.893199</v>
+        <v>5.8931990000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1978.550000</v>
+        <v>1978.55</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1825.890000</v>
+        <v>-1825.89</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>21226.496005</v>
+        <v>21226.496005000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>5.896249</v>
+        <v>5.8962490000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2366.510000</v>
+        <v>2366.5100000000002</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2712.370000</v>
+        <v>-2712.37</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>21237.376247</v>
       </c>
       <c r="BY24" s="1">
-        <v>5.899271</v>
+        <v>5.8992709999999997</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2855.190000</v>
+        <v>2855.19</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3675.450000</v>
+        <v>-3675.45</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>21250.502868</v>
       </c>
       <c r="CD24" s="1">
-        <v>5.902917</v>
+        <v>5.9029170000000004</v>
       </c>
       <c r="CE24" s="1">
-        <v>4289.910000</v>
+        <v>4289.91</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5980.540000</v>
+        <v>-5980.54</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>21079.345927</v>
+        <v>21079.345926999998</v>
       </c>
       <c r="B25" s="1">
-        <v>5.855374</v>
+        <v>5.8553740000000003</v>
       </c>
       <c r="C25" s="1">
-        <v>1240.700000</v>
+        <v>1240.7</v>
       </c>
       <c r="D25" s="1">
-        <v>-307.038000</v>
+        <v>-307.03800000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>21089.731164</v>
+        <v>21089.731164000001</v>
       </c>
       <c r="G25" s="1">
-        <v>5.858259</v>
+        <v>5.8582590000000003</v>
       </c>
       <c r="H25" s="1">
-        <v>1264.930000</v>
+        <v>1264.93</v>
       </c>
       <c r="I25" s="1">
-        <v>-264.289000</v>
+        <v>-264.28899999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>21099.850508</v>
       </c>
       <c r="L25" s="1">
-        <v>5.861070</v>
+        <v>5.8610699999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>1299.850000</v>
+        <v>1299.8499999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.742000</v>
+        <v>-201.74199999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>21110.403390</v>
+        <v>21110.403389999999</v>
       </c>
       <c r="Q25" s="1">
         <v>5.864001</v>
       </c>
       <c r="R25" s="1">
-        <v>1311.660000</v>
+        <v>1311.66</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.059000</v>
+        <v>-184.059</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>21121.487983</v>
+        <v>21121.487982999999</v>
       </c>
       <c r="V25" s="1">
-        <v>5.867080</v>
+        <v>5.8670799999999996</v>
       </c>
       <c r="W25" s="1">
-        <v>1324.430000</v>
+        <v>1324.43</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.548000</v>
+        <v>-170.548</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>21131.972417</v>
+        <v>21131.972417000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>5.869992</v>
+        <v>5.8699919999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1341.510000</v>
+        <v>1341.51</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.636000</v>
+        <v>-168.636</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>21142.409731</v>
       </c>
       <c r="AF25" s="1">
-        <v>5.872892</v>
+        <v>5.8728920000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1354.360000</v>
+        <v>1354.36</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.396000</v>
+        <v>-178.39599999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>21152.962118</v>
+        <v>21152.962117999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>5.875823</v>
+        <v>5.8758229999999996</v>
       </c>
       <c r="AL25" s="1">
-        <v>1375.100000</v>
+        <v>1375.1</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.520000</v>
+        <v>-208.52</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>21163.656361</v>
+        <v>21163.656361000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>5.878793</v>
+        <v>5.8787929999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1396.770000</v>
+        <v>1396.77</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.621000</v>
+        <v>-252.62100000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>21174.796010</v>
+        <v>21174.796009999998</v>
       </c>
       <c r="AU25" s="1">
         <v>5.881888</v>
       </c>
       <c r="AV25" s="1">
-        <v>1421.490000</v>
+        <v>1421.49</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.796000</v>
+        <v>-312.79599999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>21185.487797</v>
+        <v>21185.487797000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>5.884858</v>
+        <v>5.8848580000000004</v>
       </c>
       <c r="BA25" s="1">
-        <v>1441.030000</v>
+        <v>1441.03</v>
       </c>
       <c r="BB25" s="1">
-        <v>-365.010000</v>
+        <v>-365.01</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>21196.091772</v>
       </c>
       <c r="BE25" s="1">
-        <v>5.887803</v>
+        <v>5.8878029999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1527.050000</v>
+        <v>1527.05</v>
       </c>
       <c r="BG25" s="1">
-        <v>-613.283000</v>
+        <v>-613.28300000000002</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>21205.577727</v>
       </c>
       <c r="BJ25" s="1">
-        <v>5.890438</v>
+        <v>5.8904379999999996</v>
       </c>
       <c r="BK25" s="1">
-        <v>1682.620000</v>
+        <v>1682.62</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1057.550000</v>
+        <v>-1057.55</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>21215.887572</v>
       </c>
       <c r="BO25" s="1">
-        <v>5.893302</v>
+        <v>5.8933020000000003</v>
       </c>
       <c r="BP25" s="1">
-        <v>1978.770000</v>
+        <v>1978.77</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1825.890000</v>
+        <v>-1825.89</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>21226.926531</v>
+        <v>21226.926531000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>5.896368</v>
+        <v>5.8963679999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>2366.090000</v>
+        <v>2366.09</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2712.140000</v>
+        <v>-2712.14</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>21237.799334</v>
+        <v>21237.799333999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>5.899389</v>
+        <v>5.8993890000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2855.620000</v>
+        <v>2855.62</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3674.960000</v>
+        <v>-3674.96</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>21251.021684</v>
+        <v>21251.021683999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>5.903062</v>
+        <v>5.9030620000000003</v>
       </c>
       <c r="CE25" s="1">
-        <v>4273.420000</v>
+        <v>4273.42</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5981.970000</v>
+        <v>-5981.97</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>21079.689656</v>
+        <v>21079.689655999999</v>
       </c>
       <c r="B26" s="1">
-        <v>5.855469</v>
+        <v>5.8554690000000003</v>
       </c>
       <c r="C26" s="1">
-        <v>1240.700000</v>
+        <v>1240.7</v>
       </c>
       <c r="D26" s="1">
-        <v>-306.352000</v>
+        <v>-306.35199999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>21090.078329</v>
       </c>
       <c r="G26" s="1">
-        <v>5.858355</v>
+        <v>5.8583550000000004</v>
       </c>
       <c r="H26" s="1">
-        <v>1265.640000</v>
+        <v>1265.6400000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-263.985000</v>
+        <v>-263.98500000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>21100.500762</v>
       </c>
       <c r="L26" s="1">
-        <v>5.861250</v>
+        <v>5.8612500000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1300.280000</v>
+        <v>1300.28</v>
       </c>
       <c r="N26" s="1">
-        <v>-202.202000</v>
+        <v>-202.202</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>21111.055663</v>
+        <v>21111.055662999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>5.864182</v>
+        <v>5.8641819999999996</v>
       </c>
       <c r="R26" s="1">
-        <v>1311.740000</v>
+        <v>1311.74</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.969000</v>
+        <v>-183.96899999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>21121.874366</v>
       </c>
       <c r="V26" s="1">
-        <v>5.867187</v>
+        <v>5.8671870000000004</v>
       </c>
       <c r="W26" s="1">
-        <v>1324.570000</v>
+        <v>1324.57</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.672000</v>
+        <v>-170.672</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>21132.318625</v>
       </c>
       <c r="AA26" s="1">
-        <v>5.870089</v>
+        <v>5.8700890000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1341.710000</v>
+        <v>1341.71</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.652000</v>
+        <v>-168.65199999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>21142.754484</v>
+        <v>21142.754484000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>5.872987</v>
+        <v>5.8729870000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>1354.710000</v>
+        <v>1354.71</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.684000</v>
+        <v>-178.684</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>21153.312816</v>
+        <v>21153.312816000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>5.875920</v>
+        <v>5.8759199999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>1375.110000</v>
+        <v>1375.11</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.544000</v>
+        <v>-208.54400000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>21164.013975</v>
+        <v>21164.013975000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>5.878893</v>
+        <v>5.8788929999999997</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1396.790000</v>
+        <v>1396.79</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.618000</v>
+        <v>-252.61799999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>21175.208681</v>
@@ -6784,103 +7200,103 @@
         <v>5.882002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1421.470000</v>
+        <v>1421.47</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.822000</v>
+        <v>-312.822</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>21185.789866</v>
+        <v>21185.789865999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>5.884942</v>
+        <v>5.8849419999999997</v>
       </c>
       <c r="BA26" s="1">
-        <v>1441.000000</v>
+        <v>1441</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.993000</v>
+        <v>-364.99299999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>21196.398764</v>
+        <v>21196.398764000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>5.887889</v>
+        <v>5.8878890000000004</v>
       </c>
       <c r="BF26" s="1">
-        <v>1527.040000</v>
+        <v>1527.04</v>
       </c>
       <c r="BG26" s="1">
-        <v>-613.249000</v>
+        <v>-613.24900000000002</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>21205.954191</v>
+        <v>21205.954191000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>5.890543</v>
+        <v>5.8905430000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1682.480000</v>
+        <v>1682.48</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1057.480000</v>
+        <v>-1057.48</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>21216.316611</v>
+        <v>21216.316610999998</v>
       </c>
       <c r="BO26" s="1">
         <v>5.893421</v>
       </c>
       <c r="BP26" s="1">
-        <v>1978.820000</v>
+        <v>1978.82</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1825.800000</v>
+        <v>-1825.8</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>21227.352099</v>
       </c>
       <c r="BT26" s="1">
-        <v>5.896487</v>
+        <v>5.8964869999999996</v>
       </c>
       <c r="BU26" s="1">
-        <v>2366.340000</v>
+        <v>2366.34</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2711.370000</v>
+        <v>-2711.37</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>21238.224902</v>
+        <v>21238.224902000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>5.899507</v>
+        <v>5.8995069999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2854.900000</v>
+        <v>2854.9</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3674.590000</v>
+        <v>-3674.59</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>21251.540212</v>
@@ -6889,15 +7305,16 @@
         <v>5.903206</v>
       </c>
       <c r="CE26" s="1">
-        <v>4275.930000</v>
+        <v>4275.93</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5998.960000</v>
+        <v>-5998.96</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>